--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F62DBF-0C81-2142-A8E2-AE42DB78AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA46706-65EF-0442-BB45-076B050010B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="33440" windowHeight="20140" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="640" yWindow="760" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Options" sheetId="2" r:id="rId2"/>
+    <sheet name="_config.yml" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>File</t>
   </si>
@@ -81,13 +83,1061 @@
   </si>
   <si>
     <t>Site configurations and settings needed at build time</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Site title</t>
+  </si>
+  <si>
+    <t>The title of the site as it is shown in the left-upper corner</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t># Site settings</t>
+  </si>
+  <si>
+    <r>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Docaroo</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># we don't use url from here because all pages will cause problms when deploying in different environments (GHP, Netlify ...). </t>
+  </si>
+  <si>
+    <t># we use it from environment varibles ENV["DEPLOY_PROD_BASE_URL"]. this is still here just to be aware of the way we use it</t>
+  </si>
+  <si>
+    <t># description: ""</t>
+  </si>
+  <si>
+    <t>#url: "https://figmares.innohub.space"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># we don't use description from here because all pages will have the same &lt;meta name="description" ...&gt;. </t>
+  </si>
+  <si>
+    <t># we add it dynamically in head_custom.html. this is still here just to be aware of the way we use it</t>
+  </si>
+  <si>
+    <t># Build settings</t>
+  </si>
+  <si>
+    <t># THEME CAN BE THE LAST AS BELOW IF DEPLOY TO GHP FROM ACTION</t>
+  </si>
+  <si>
+    <r>
+      <t>theme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>just-the-docs</t>
+    </r>
+  </si>
+  <si>
+    <t># THEME SOULD BE AS BELOW IF DEPLOY TO GHP FROM BRANCH</t>
+  </si>
+  <si>
+    <t>#remote_theme: just-the-docs/just-the-docs@v0.8.0 # it works only with remote_theme. as of April 2024, v0.8.0 is the latest that works</t>
+  </si>
+  <si>
+    <t>#plugins:</t>
+  </si>
+  <si>
+    <t># - jekyll-feed # activate only if the site has posts</t>
+  </si>
+  <si>
+    <t># DEFAULT EXCLUDES (SHOWN HERE JUST TO BE AWARE OF THEM)</t>
+  </si>
+  <si>
+    <t># exclude:</t>
+  </si>
+  <si>
+    <t># - .sass-cache/</t>
+  </si>
+  <si>
+    <t># - .jekyll-cache/</t>
+  </si>
+  <si>
+    <t># - gemfiles/</t>
+  </si>
+  <si>
+    <t># - Gemfile</t>
+  </si>
+  <si>
+    <t># - Gemfile.lock</t>
+  </si>
+  <si>
+    <t># - node_modules/</t>
+  </si>
+  <si>
+    <t># - vendor/bundle/</t>
+  </si>
+  <si>
+    <t># - vendor/cache/</t>
+  </si>
+  <si>
+    <t># - vendor/gems/</t>
+  </si>
+  <si>
+    <t># - vendor/ruby/</t>
+  </si>
+  <si>
+    <r>
+      <t>exclude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>tools/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>tools_py/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>tools_sh/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>check</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>netlify.toml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>requirements.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>runtime.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CNAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LICENSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>README.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>serve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>serve-rack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>config.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.github/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>doc-raw-contents/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>start-up/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>doc-change-log/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_data/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_plugins/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>_sass/custom/*.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/*.scss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.env</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t># excluding from build because may generate infinite build loop. copied to _site with a site:post_write hook</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>unused/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>doc-contents/**/*.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>#- doc-contents/**/*.pdf</t>
+  </si>
+  <si>
+    <t>#- doc-contents/**/*.docx</t>
+  </si>
+  <si>
+    <t>#- doc-contents/**/*.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t>aux_links</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"GitHub"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"About"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t># Makes Aux links open in a new tab. Default is false</t>
+  </si>
+  <si>
+    <r>
+      <t>aux_links_new_tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t># algolia search has priority even if search_enabled=true. see buildConfig.algoliaSearch</t>
+  </si>
+  <si>
+    <r>
+      <t>search_enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># heading anchors must be false because it generates a weird effect of showing huge blue anchors </t>
+  </si>
+  <si>
+    <t># when loading the page and until the page is loaded. nevertheless, page ToC is good and enough</t>
+  </si>
+  <si>
+    <r>
+      <t>heading_anchors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t># set the favicon just to be sure</t>
+  </si>
+  <si>
+    <r>
+      <t>favicon_ico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"favicon.png"</t>
+    </r>
+  </si>
+  <si>
+    <t># define the folder where jekyll will look for collection, otherwise will look in the root folder</t>
+  </si>
+  <si>
+    <r>
+      <t>collections_dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>doc-contents</t>
+    </r>
+  </si>
+  <si>
+    <t># MARKER COLLECTIONS START</t>
+  </si>
+  <si>
+    <r>
+      <t>collections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t># custom collections</t>
+  </si>
+  <si>
+    <r>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>permalink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"/:collection/:path"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>experiments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t># default collections (last position(s))</t>
+  </si>
+  <si>
+    <r>
+      <t>tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>faq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t># no output for faq collection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t># see https://just-the-docs.com/docs/configuration/#document-collections</t>
+  </si>
+  <si>
+    <r>
+      <t>just_the_docs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nav_fold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Components</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tools</t>
+    </r>
+  </si>
+  <si>
+    <t># MARKER COLLECTIONS END</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +1151,30 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A9955"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -158,6 +1232,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C506A-1D18-404D-9DEE-7DB932EB12B0}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -576,4 +1674,753 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="31.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="10"/>
+    <col min="6" max="6" width="11.83203125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="10"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>Tables!B3</f>
+        <v>_config.yml</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>LEFT('_config.yml'!B4, FIND(":",'_config.yml'!B4)-1)</f>
+        <v>title</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B11" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC00F1B-41D9-064A-B103-BCCE2B461472}">
+  <dimension ref="B2:B134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="185.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B52" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B60" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B64" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B66" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B68" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B72" s="14" t="e">
+        <f>- "//github.com/pmc-community/jekyll-site-template"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B74" s="14" t="e">
+        <f>- "//pmc-expert.com"</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B76" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B79" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B86" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B89" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B90" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B92" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B96" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B97" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B98" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B99" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B101" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B106" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B107" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B108" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B109" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B110" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B111" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B112" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B115" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B116" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B117" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B118" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B119" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B120" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B121" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B123" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B124" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B125" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B126" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B127" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B129" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B130" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B131" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B132" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B134" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E95591-6436-3441-AA85-2FFBBBEECE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D43A0-B9A0-6C44-9417-B640E95B9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="620" yWindow="760" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Options!$B$2:$H$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>File</t>
   </si>
@@ -141,9 +144,6 @@
     <t>Collections</t>
   </si>
   <si>
-    <t>Define your cusotm collections (Jekyll style)</t>
-  </si>
-  <si>
     <t>collections</t>
   </si>
   <si>
@@ -157,6 +157,271 @@
   </si>
   <si>
     <t>yml objects</t>
+  </si>
+  <si>
+    <t>Light theme text color</t>
+  </si>
+  <si>
+    <t>Content text color for light theme</t>
+  </si>
+  <si>
+    <t>colSchemaCorrections/textColorOnElementsAffected</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>web color code</t>
+  </si>
+  <si>
+    <t>Light theme background color</t>
+  </si>
+  <si>
+    <t>Background for the light theme</t>
+  </si>
+  <si>
+    <t>colSchemaCorrections/backgroundColorOnElementsAffected</t>
+  </si>
+  <si>
+    <t>Dark theme text color</t>
+  </si>
+  <si>
+    <t>Content text color for dark theme</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>Dark theme background color</t>
+  </si>
+  <si>
+    <t>Background for dark theme</t>
+  </si>
+  <si>
+    <t>Site categories in site menu</t>
+  </si>
+  <si>
+    <t>Show or hide categories in site menu</t>
+  </si>
+  <si>
+    <t>catMenu</t>
+  </si>
+  <si>
+    <t>No. of similar pages</t>
+  </si>
+  <si>
+    <t>Set how many similar by content pages are shown (based on similarity score)</t>
+  </si>
+  <si>
+    <t>similarByContent</t>
+  </si>
+  <si>
+    <t>maxPages</t>
+  </si>
+  <si>
+    <t>Prev/Next navigation</t>
+  </si>
+  <si>
+    <t>Activate/Deactivate prev/next navigation on each content page</t>
+  </si>
+  <si>
+    <t>navPrevNextEnabled</t>
+  </si>
+  <si>
+    <t>HubSpot integration</t>
+  </si>
+  <si>
+    <t>Enable/Disable HubSpot forms integration</t>
+  </si>
+  <si>
+    <t>hsIntegration</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>HubSpot form submissions source</t>
+  </si>
+  <si>
+    <t>Set the source for HubSpot form submissions</t>
+  </si>
+  <si>
+    <t>hsIntegration/forms/submisionSource</t>
+  </si>
+  <si>
+    <t>propValue</t>
+  </si>
+  <si>
+    <t>Define your custom collections (Jekyll style)</t>
+  </si>
+  <si>
+    <t>Privacy link</t>
+  </si>
+  <si>
+    <t>Link yo your privacy policy</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>privacyLink</t>
+  </si>
+  <si>
+    <t>Support link</t>
+  </si>
+  <si>
+    <t>Link to your technical support page</t>
+  </si>
+  <si>
+    <t>supportLink</t>
+  </si>
+  <si>
+    <t>Content selected text menu</t>
+  </si>
+  <si>
+    <t>Enable/Disable contect menu on content text (to not be used without Algolia docSearch)</t>
+  </si>
+  <si>
+    <t>selectedTextContextMenu</t>
+  </si>
+  <si>
+    <t>Minimum words selected to open the selected text menu</t>
+  </si>
+  <si>
+    <t>Selected text menu min. words</t>
+  </si>
+  <si>
+    <t>Selected text menu max. words</t>
+  </si>
+  <si>
+    <t>Maximum words selected to allow open the selected text menu</t>
+  </si>
+  <si>
+    <t>minWords</t>
+  </si>
+  <si>
+    <t>maxWords</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Text annotations</t>
+  </si>
+  <si>
+    <t>selectedTextContextMenu/comments</t>
+  </si>
+  <si>
+    <t>Enable/Disable annotations on content text</t>
+  </si>
+  <si>
+    <t>Text annotations length</t>
+  </si>
+  <si>
+    <t>The max. length of a text annotation</t>
+  </si>
+  <si>
+    <t>maxChars</t>
+  </si>
+  <si>
+    <t>Text annotation words</t>
+  </si>
+  <si>
+    <t>Tags from selected text words</t>
+  </si>
+  <si>
+    <t>The maximum number of words of a text annotation</t>
+  </si>
+  <si>
+    <t>selectedTextContextMenu/tags</t>
+  </si>
+  <si>
+    <t>Tags from selected text length</t>
+  </si>
+  <si>
+    <t>The maximum number of words selected that can generate a custom tag</t>
+  </si>
+  <si>
+    <t>The maximum number of characters selected that can generate a custom tag</t>
+  </si>
+  <si>
+    <t>Enable/Disable autosave option for the current custom taxonomies before loading a new configuration</t>
+  </si>
+  <si>
+    <t>Auto save custom taxonomies</t>
+  </si>
+  <si>
+    <t>savedItems</t>
+  </si>
+  <si>
+    <t>autoSaveBeforeLoad</t>
+  </si>
+  <si>
+    <t>Multilanguage</t>
+  </si>
+  <si>
+    <t>Enable/Disable multilanguage for the site</t>
+  </si>
+  <si>
+    <t>multilang</t>
+  </si>
+  <si>
+    <t>Available languages</t>
+  </si>
+  <si>
+    <t>List the site's available languages</t>
+  </si>
+  <si>
+    <t>multilang/availableLang</t>
+  </si>
+  <si>
+    <t>yml array of objects</t>
+  </si>
+  <si>
+    <t>lang: ISO0639-1 language code
+name: Friendly name of the language</t>
+  </si>
+  <si>
+    <t>Default language</t>
+  </si>
+  <si>
+    <t>siteLanguage</t>
+  </si>
+  <si>
+    <t>The default language of the site as position inside the array of available languages (starting with 0)</t>
+  </si>
+  <si>
+    <t>Fallback language</t>
+  </si>
+  <si>
+    <t>fallbackLang</t>
+  </si>
+  <si>
+    <t>The language which is automatically set if the site cannot use a certain user selected language (i.e. the translation file(s) are not found) s position inside the array of available languages (starting with 0)</t>
+  </si>
+  <si>
+    <t>Table pagination</t>
+  </si>
+  <si>
+    <t>The number of pagination buttons (except the arrow buttons) shown in the tables pagination control (used for better display on mobile devices for long tables)</t>
+  </si>
+  <si>
+    <t>dataTables</t>
+  </si>
+  <si>
+    <t>paginationButtons</t>
+  </si>
+  <si>
+    <t>Rows per page in tables</t>
+  </si>
+  <si>
+    <t>The default number of rows shown on page for tables</t>
+  </si>
+  <si>
+    <t>rowsPerPage</t>
   </si>
 </sst>
 </file>
@@ -677,10 +942,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +955,10 @@
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="25.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="10"/>
-    <col min="6" max="6" width="17" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="13.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20" style="10" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -770,7 +1036,7 @@
     </row>
     <row r="5" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B11" si="0">B4+1</f>
+        <f t="shared" ref="B5:B41" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -803,21 +1069,21 @@
         <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="str">
         <f>E5</f>
         <v>_config.yml</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>G4</f>
         <v>---</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.2">
@@ -826,17 +1092,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>E6</f>
         <v>_config.yml</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>G6</f>
@@ -847,55 +1113,783 @@
         <v>yml objects</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f>E8</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>G8</f>
+        <v>light</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f>H8</f>
+        <v>web color code</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f>E9</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f>H9</f>
+        <v>web color code</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>E10</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f>G10</f>
+        <v>dark</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f>H10</f>
+        <v>web color code</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>E11</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>F3</f>
+        <v>---</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f>E12</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>E13</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f>F12</f>
+        <v>---</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f>E14</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>E15</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>E16</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>E17</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f>F17</f>
+        <v>links</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f>E18</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>E19</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f>F19</f>
+        <v>selectedTextContextMenu</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f>H13</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f>E20</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f>F20</f>
+        <v>selectedTextContextMenu</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f>H20</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>E21</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f>H19</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>E22</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f>F22</f>
+        <v>selectedTextContextMenu/comments</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f>H21</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>E23</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>F23</f>
+        <v>selectedTextContextMenu/comments</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f>H23</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f>E24</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f>G24</f>
+        <v>maxWords</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f>H24</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>E25</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f>F25</f>
+        <v>selectedTextContextMenu/tags</v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f>G23</f>
+        <v>maxChars</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f>H25</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f>E26</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f>H22</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>E27</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f>H27</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f>E28</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>E29</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>H26</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f>E30</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f>F30</f>
+        <v>multilang</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f>H30</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f>E31</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f>H31</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f>E32</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f>F32</f>
+        <v>dataTables</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f>H32</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D43A0-B9A0-6C44-9417-B640E95B9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A3FF3-8E1F-7146-BDCA-C07B8B7344A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="760" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="300" yWindow="680" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="183">
   <si>
     <t>File</t>
   </si>
@@ -422,6 +422,196 @@
   </si>
   <si>
     <t>rowsPerPage</t>
+  </si>
+  <si>
+    <t>Python support</t>
+  </si>
+  <si>
+    <t>pyEnable</t>
+  </si>
+  <si>
+    <t>Enable/Disable Python (used for various functionalities during build time)</t>
+  </si>
+  <si>
+    <t>Python launch</t>
+  </si>
+  <si>
+    <t>The python launch command used to run python scripts</t>
+  </si>
+  <si>
+    <t>pyLaunch</t>
+  </si>
+  <si>
+    <t>pyPageSummary</t>
+  </si>
+  <si>
+    <t>allInOneStep</t>
+  </si>
+  <si>
+    <t>summaryLength</t>
+  </si>
+  <si>
+    <t>Enable/Disable usage of a model(tokenizer) prompt for summary generation (some models doesn't need prompts)</t>
+  </si>
+  <si>
+    <t>usePrompt</t>
+  </si>
+  <si>
+    <t>Enable/Disable automatically doc summary generation</t>
+  </si>
+  <si>
+    <t>Max. no. of words in generated doc summary</t>
+  </si>
+  <si>
+    <t>Doc summarisation model</t>
+  </si>
+  <si>
+    <t>pyPageSummary/model</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Generate doc summary</t>
+  </si>
+  <si>
+    <t>Use a model prompt for doc summary generation</t>
+  </si>
+  <si>
+    <t>The Huggingface summarisation model used for generating doc Summary (different models may be set for different languages)</t>
+  </si>
+  <si>
+    <t>Doc summarisation model parameters</t>
+  </si>
+  <si>
+    <t>Parameters to tune the summarisation model</t>
+  </si>
+  <si>
+    <t>max_length
+min_length
+length_penalty
+num_beams
+early_stopping</t>
+  </si>
+  <si>
+    <t>number
+number
+float
+number
+true/false</t>
+  </si>
+  <si>
+    <t>Summarisation model prompt</t>
+  </si>
+  <si>
+    <t>The prompt used for the model for generating the doc summary (if the model accepts prompts)</t>
+  </si>
+  <si>
+    <t>pyPageSummary/tokenizer</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>Doc summarisation model tokenizer parameters</t>
+  </si>
+  <si>
+    <t>Parameters to tune the summarisation tokenizer</t>
+  </si>
+  <si>
+    <t>max_length
+return_tensors
+truncation
+skip_special_tokens</t>
+  </si>
+  <si>
+    <t>number
+string
+true/false
+true/false</t>
+  </si>
+  <si>
+    <t>Run pre-build checks</t>
+  </si>
+  <si>
+    <t>Enable/Disable automatically run for some checks, before building the site</t>
+  </si>
+  <si>
+    <t>preFlight</t>
+  </si>
+  <si>
+    <t>Doc summary length</t>
+  </si>
+  <si>
+    <t>Enable/Disable generation of the related pages for each doc</t>
+  </si>
+  <si>
+    <t>relatedPages</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>Set how many related pages are selected in the descending order of the calculated score</t>
+  </si>
+  <si>
+    <t>relPagesNo</t>
+  </si>
+  <si>
+    <t>Related docs</t>
+  </si>
+  <si>
+    <t>Related docs number</t>
+  </si>
+  <si>
+    <t>Related docs score sensitivity</t>
+  </si>
+  <si>
+    <t>Set the sensitivity of the score when deciding if two docs are related</t>
+  </si>
+  <si>
+    <t>scoreLimit</t>
+  </si>
+  <si>
+    <t>float (negative)</t>
+  </si>
+  <si>
+    <t>Related pages score elements weights</t>
+  </si>
+  <si>
+    <t>Set the weight of the elements contributing to the related docs score (the sume of weights must be 1)</t>
+  </si>
+  <si>
+    <t>relatedPages/tf_idf_weigths</t>
+  </si>
+  <si>
+    <t>keywords
+tags
+cats
+content</t>
+  </si>
+  <si>
+    <t>float
+float
+float
+float</t>
+  </si>
+  <si>
+    <t>Auto excerpt parameters</t>
+  </si>
+  <si>
+    <t>autoExcerpt</t>
+  </si>
+  <si>
+    <t>keywords
+minKeywordLength</t>
+  </si>
+  <si>
+    <t>number
+number</t>
+  </si>
+  <si>
+    <t>Set the parameters for doc exceprt generation (will be generated if the document does not have the 'excerpt' prop in the front matter)</t>
   </si>
 </sst>
 </file>
@@ -942,11 +1132,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1226,7 @@
     </row>
     <row r="5" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B41" si="0">B4+1</f>
+        <f t="shared" ref="B5:B63" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1792,101 +1982,577 @@
         <v>number</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f>F14</f>
+        <v>---</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>H27</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f>E34</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f>F34</f>
+        <v>---</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f>H16</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f>E35</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="8" t="str">
+        <f>H34</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f>E36</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f>F36</f>
+        <v>pyPageSummary</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f>H33</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f>E37</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f>F37</f>
+        <v>pyPageSummary</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f>H34</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f>E38</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="8" t="str">
+        <f>H35</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f>E39</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f>F39</f>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="8" t="str">
+        <f>E40</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="8" t="str">
+        <f>H39</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="8" t="str">
+        <f>E41</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f>F41</f>
+        <v>pyPageSummary/tokenizer</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="8" t="str">
+        <f>E42</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f>F35</f>
+        <v>---</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f>E43</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="8" t="str">
+        <f>H43</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f>E44</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f>F44</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <f>H37</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B46" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f>E45</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f>F45</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="B47" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="8" t="str">
+        <f>E46</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="8" t="str">
+        <f>E47</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>

--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A3FF3-8E1F-7146-BDCA-C07B8B7344A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D6CA6-C0E5-1545-9071-76CC487BA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="680" windowWidth="33440" windowHeight="20140" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="160" yWindow="820" windowWidth="34240" windowHeight="20020" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 number</t>
   </si>
   <si>
-    <t>Set the parameters for doc exceprt generation (will be generated if the document does not have the 'excerpt' prop in the front matter)</t>
+    <t>Set the parameters (min. no of words, min. lengrh of a keyword) for doc exceprt generation (will be generated if the document does not have the 'excerpt' prop in the front matter)</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1339,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f>E8</f>
+        <f t="shared" ref="E9:E33" si="1">E8</f>
         <v>siteConfig.yml</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1366,7 +1366,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>E9</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f>E10</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1419,7 +1419,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>E11</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F12" s="8" t="str">
@@ -1445,7 +1445,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>E12</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1470,7 +1470,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>E13</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F14" s="8" t="str">
@@ -1496,7 +1496,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f>E14</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1521,7 +1521,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>E15</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1546,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f>E16</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1571,7 +1571,7 @@
         <v>77</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>E17</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F18" s="8" t="str">
@@ -1597,7 +1597,7 @@
         <v>80</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f>E18</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1622,7 +1622,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f>E19</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F20" s="8" t="str">
@@ -1649,7 +1649,7 @@
         <v>85</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f>E20</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F21" s="8" t="str">
@@ -1676,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>E21</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -1702,7 +1702,7 @@
         <v>93</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f>E22</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F23" s="8" t="str">
@@ -1729,7 +1729,7 @@
         <v>97</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>E23</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F24" s="8" t="str">
@@ -1756,7 +1756,7 @@
         <v>100</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f>E24</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -1783,7 +1783,7 @@
         <v>101</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>E25</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F26" s="8" t="str">
@@ -1811,7 +1811,7 @@
         <v>102</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f>E26</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -1837,7 +1837,7 @@
         <v>107</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f>E27</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -1863,7 +1863,7 @@
         <v>110</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f>E28</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -1888,7 +1888,7 @@
         <v>116</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f>E29</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1914,7 +1914,7 @@
         <v>119</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f>E30</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F31" s="8" t="str">
@@ -1941,7 +1941,7 @@
         <v>121</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f>E31</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -1967,7 +1967,7 @@
         <v>125</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f>E32</f>
+        <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="F33" s="8" t="str">
@@ -2047,7 +2047,7 @@
         <v>138</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f>E35</f>
+        <f t="shared" ref="E36:E48" si="2">E35</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -2073,7 +2073,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f>E36</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F37" s="8" t="str">
@@ -2100,7 +2100,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f>E37</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F38" s="8" t="str">
@@ -2127,7 +2127,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f>E38</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -2153,7 +2153,7 @@
         <v>147</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f>E39</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F40" s="8" t="str">
@@ -2179,7 +2179,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f>E40</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2205,7 +2205,7 @@
         <v>155</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f>E41</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F42" s="8" t="str">
@@ -2231,7 +2231,7 @@
         <v>159</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f>E42</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F43" s="8" t="str">
@@ -2257,7 +2257,7 @@
         <v>162</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f>E43</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -2283,7 +2283,7 @@
         <v>165</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f>E44</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F45" s="8" t="str">
@@ -2310,7 +2310,7 @@
         <v>170</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f>E45</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F46" s="8" t="str">
@@ -2336,7 +2336,7 @@
         <v>174</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f>E46</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -2349,7 +2349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B48" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2361,7 +2361,7 @@
         <v>182</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f>E47</f>
+        <f t="shared" si="2"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="F48" s="8" t="s">

--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D6CA6-C0E5-1545-9071-76CC487BA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14922671-1CE2-B146-9531-FE8465FE4C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="820" windowWidth="34240" windowHeight="20020" activeTab="1" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="42320" yWindow="-4580" windowWidth="39220" windowHeight="24080" activeTab="2" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tables" sheetId="1" r:id="rId1"/>
-    <sheet name="Options" sheetId="2" r:id="rId2"/>
+    <sheet name="configs" sheetId="3" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId2"/>
+    <sheet name="Options" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Options!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$B$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="192">
   <si>
     <t>File</t>
   </si>
@@ -105,9 +106,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -378,13 +376,6 @@
     <t>multilang/availableLang</t>
   </si>
   <si>
-    <t>yml array of objects</t>
-  </si>
-  <si>
-    <t>lang: ISO0639-1 language code
-name: Friendly name of the language</t>
-  </si>
-  <si>
     <t>Default language</t>
   </si>
   <si>
@@ -485,13 +476,6 @@
   </si>
   <si>
     <t>Parameters to tune the summarisation model</t>
-  </si>
-  <si>
-    <t>max_length
-min_length
-length_penalty
-num_beams
-early_stopping</t>
   </si>
   <si>
     <t>number
@@ -519,12 +503,6 @@
     <t>Parameters to tune the summarisation tokenizer</t>
   </si>
   <si>
-    <t>max_length
-return_tensors
-truncation
-skip_special_tokens</t>
-  </si>
-  <si>
     <t>number
 string
 true/false
@@ -585,12 +563,6 @@
     <t>relatedPages/tf_idf_weigths</t>
   </si>
   <si>
-    <t>keywords
-tags
-cats
-content</t>
-  </si>
-  <si>
     <t>float
 float
 float
@@ -612,6 +584,52 @@
   </si>
   <si>
     <t>Set the parameters (min. no of words, min. lengrh of a keyword) for doc exceprt generation (will be generated if the document does not have the 'excerpt' prop in the front matter)</t>
+  </si>
+  <si>
+    <t>yml array of objects
+string</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Config options categories</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>General Feature</t>
+  </si>
+  <si>
+    <t>Taxonomies</t>
+  </si>
+  <si>
+    <t>Auto summaries</t>
+  </si>
+  <si>
+    <t>Auto excerpt</t>
+  </si>
+  <si>
+    <t>Auto keywords</t>
+  </si>
+  <si>
+    <t>Auto similar docs</t>
+  </si>
+  <si>
+    <t>Auto related docs</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Key in Section</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1061,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD44EFC-ED1A-7C41-9E25-77D338FDDE8A}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C506A-1D18-404D-9DEE-7DB932EB12B0}">
   <dimension ref="B2:D7"/>
   <sheetViews>
@@ -1130,52 +1226,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:H63"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
-    <col min="3" max="3" width="25.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="25.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="37.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -1183,1198 +1286,1513 @@
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="F3" s="8" t="str">
         <f>Tables!B3</f>
         <v>_config.yml</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="8" t="str">
+        <f>IF(H3="",I3,IF(I3&lt;&gt;"",_xlfn.CONCAT(H3,"/",I3),H3))</f>
+        <v>title</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f>F3</f>
+        <v>_config.yml</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f>IF(H4="",I4,IF(I4&lt;&gt;"",_xlfn.CONCAT(H4,"/",I4),H4))</f>
+        <v>aux_links</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f>E3</f>
-        <v>_config.yml</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <f t="shared" ref="B5:B63" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="str">
+        <f>F4</f>
+        <v>_config.yml</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f>IF(H5="",I5,IF(I5&lt;&gt;"",_xlfn.CONCAT(H5,"/",I5),H5))</f>
+        <v>aux_links_new_tab</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>H3</f>
+        <v/>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f>E4</f>
+      <c r="J5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f>F5</f>
         <v>_config.yml</v>
       </c>
-      <c r="F5" s="8" t="str">
-        <f>F3</f>
-        <v>---</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="G6" s="8" t="str">
+        <f>IF(H6="",I6,IF(I6&lt;&gt;"",_xlfn.CONCAT(H6,"/",I6),H6))</f>
+        <v>collections</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f>E5</f>
+      <c r="I6" s="8" t="str">
+        <f>I4</f>
+        <v/>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f>F6</f>
         <v>_config.yml</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f>G4</f>
-        <v>---</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G7" s="8" t="str">
+        <f>IF(H7="",I7,IF(I7&lt;&gt;"",_xlfn.CONCAT(H7,"/",I7),H7))</f>
+        <v>just_the_docs/collections</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>I6</f>
+        <v/>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f>J6</f>
+        <v>yml objects</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f>E6</f>
-        <v>_config.yml</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f>G6</f>
-        <v>---</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f>H6</f>
-        <v>yml objects</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f>IF(H8="",I8,IF(I8&lt;&gt;"",_xlfn.CONCAT(H8,"/",I8),H8))</f>
+        <v>colSchemaCorrections/textColorOnElementsAffected/light</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" ref="F9:F33" si="1">F8</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" ref="G9:G63" si="2">IF(H9="",I9,IF(I9&lt;&gt;"",_xlfn.CONCAT(H9,"/",I9),H9))</f>
+        <v>colSchemaCorrections/backgroundColorOnElementsAffected/light</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>I8</f>
+        <v>light</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f>J8</f>
+        <v>web color code</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" ref="E9:E33" si="1">E8</f>
-        <v>siteConfig.yml</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="8" t="str">
-        <f>G8</f>
-        <v>light</v>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>H8</f>
-        <v>web color code</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="8" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>colSchemaCorrections/textColorOnElementsAffected/dark</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f>J9</f>
+        <v>web color code</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="8" t="str">
-        <f>H9</f>
-        <v>web color code</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="str">
+      <c r="F11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="8" t="str">
-        <f>G10</f>
+        <f t="shared" si="2"/>
+        <v>colSchemaCorrections/backgroundColorOnElementsAffected/dark</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>I10</f>
         <v>dark</v>
       </c>
-      <c r="H11" s="8" t="str">
-        <f>H10</f>
+      <c r="J11" s="8" t="str">
+        <f>J10</f>
         <v>web color code</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="str">
+      <c r="F12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F12" s="8" t="str">
-        <f>F3</f>
-        <v>---</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>catMenu</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>H3</f>
+        <v/>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>similarByContent/maxPages</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f>F12</f>
-        <v>---</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>navPrevNextEnabled</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>H12</f>
+        <v/>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="8" t="str">
+      <c r="F15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>hsIntegration/enabled</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="8" t="str">
+      <c r="F16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>hsIntegration/forms/submisionSource/propValue</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="8" t="str">
+      <c r="F17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>links/privacyLink</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="J17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8" t="str">
+      <c r="F18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F18" s="8" t="str">
-        <f>F17</f>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>links/supportLink</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f>H17</f>
         <v>links</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="I18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="8" t="str">
+      <c r="F19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/enabled</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8" t="str">
+      <c r="F20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F20" s="8" t="str">
-        <f>F19</f>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/minWords</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f>H19</f>
         <v>selectedTextContextMenu</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f>H13</f>
+      <c r="I20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f>J13</f>
         <v>number</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="8" t="str">
+      <c r="F21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F21" s="8" t="str">
-        <f>F20</f>
-        <v>selectedTextContextMenu</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>87</v>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/maxWords</v>
       </c>
       <c r="H21" s="8" t="str">
         <f>H20</f>
+        <v>selectedTextContextMenu</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f>J20</f>
         <v>number</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="8" t="str">
+        <v>183</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="8" t="str">
-        <f>H19</f>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/comments/enabled</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f>J19</f>
         <v>true/false</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="8" t="str">
+      <c r="F23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F23" s="8" t="str">
-        <f>F22</f>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/comments/maxChars</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f>H22</f>
         <v>selectedTextContextMenu/comments</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="I23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f>J21</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="8" t="str">
-        <f>H21</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="8" t="str">
+        <v>183</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F24" s="8" t="str">
-        <f>F23</f>
-        <v>selectedTextContextMenu/comments</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>87</v>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/comments/maxWords</v>
       </c>
       <c r="H24" s="8" t="str">
         <f>H23</f>
+        <v>selectedTextContextMenu/comments</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f>J23</f>
         <v>number</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="8" t="str">
+        <v>183</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/tags/maxWords</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>I24</f>
+        <v>maxWords</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f>J24</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="8" t="str">
-        <f>G24</f>
-        <v>maxWords</v>
-      </c>
-      <c r="H25" s="8" t="str">
-        <f>H24</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="8" t="str">
+        <v>183</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F26" s="8" t="str">
-        <f>F25</f>
-        <v>selectedTextContextMenu/tags</v>
-      </c>
       <c r="G26" s="8" t="str">
-        <f>G23</f>
-        <v>maxChars</v>
+        <f t="shared" si="2"/>
+        <v>selectedTextContextMenu/tags/maxChars</v>
       </c>
       <c r="H26" s="8" t="str">
         <f>H25</f>
+        <v>selectedTextContextMenu/tags</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>I23</f>
+        <v>maxChars</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f>J25</f>
         <v>number</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="8" t="str">
+        <v>183</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>savedItems/autoSaveBeforeLoad</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="J27" s="8" t="str">
+        <f>J22</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="8" t="str">
-        <f>H22</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="8" t="str">
+      <c r="F28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>multilang/enabled</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f>J27</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="8" t="str">
-        <f>H27</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B29" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="8" t="str">
+      <c r="F29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>multilang/availableLang</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="D30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="8" t="str">
+      <c r="F30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="8" t="str">
-        <f>H26</f>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>multilang/siteLanguage</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f>J26</f>
         <v>number</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="8" t="str">
+        <v>105</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F31" s="8" t="str">
-        <f>F30</f>
-        <v>multilang</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>118</v>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>multilang/fallbackLang</v>
       </c>
       <c r="H31" s="8" t="str">
         <f>H30</f>
+        <v>multilang</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f>J30</f>
         <v>number</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="8" t="str">
+        <v>182</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>dataTables/paginationButtons</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f>J31</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="8" t="str">
-        <f>H31</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B33" s="7">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="8" t="str">
+      <c r="F33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>siteConfig.yml</v>
       </c>
-      <c r="F33" s="8" t="str">
-        <f>F32</f>
-        <v>dataTables</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>126</v>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>dataTables/rowsPerPage</v>
       </c>
       <c r="H33" s="8" t="str">
         <f>H32</f>
+        <v>dataTables</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f>J32</f>
         <v>number</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyEnable</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>H14</f>
+        <v/>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f>J27</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f>F14</f>
-        <v>---</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f>H27</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f>E34</f>
-        <v>buildConfig.yml</v>
       </c>
       <c r="F35" s="8" t="str">
         <f>F34</f>
-        <v>---</v>
-      </c>
-      <c r="G35" s="8" t="s">
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyLaunch</v>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f>H34</f>
+        <v/>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f>J16</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f t="shared" ref="F36:F48" si="3">F35</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/allInOneStep</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f>J34</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/summaryLength</v>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f>H36</f>
+        <v>pyPageSummary</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="8" t="str">
-        <f>H16</f>
+      <c r="J37" s="8" t="str">
+        <f>J33</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/usePrompt</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f>H37</f>
+        <v>pyPageSummary</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f>J34</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/model/name</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f>J35</f>
         <v>string</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row r="40" spans="2:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="8" t="str">
-        <f t="shared" ref="E36:E48" si="2">E35</f>
+      <c r="D40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="8" t="str">
-        <f>H34</f>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="H40" s="8" t="str">
+        <f>H39</f>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/tokenizer/prompt</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f>J39</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>pyPageSummary/tokenizer</v>
+      </c>
+      <c r="H42" s="8" t="str">
+        <f>H41</f>
+        <v>pyPageSummary/tokenizer</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>preFlight</v>
+      </c>
+      <c r="H43" s="8" t="str">
+        <f>H35</f>
+        <v/>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>relatedPages/enable</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f>J43</f>
         <v>true/false</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="8" t="s">
+    <row r="45" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>relatedPages/relPagesNo</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <f>H44</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="J45" s="8" t="str">
+        <f>J37</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B46" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="F37" s="8" t="str">
-        <f>F36</f>
-        <v>pyPageSummary</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="8" t="str">
-        <f>H33</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G46" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>relatedPages/scoreLimit</v>
+      </c>
+      <c r="H46" s="8" t="str">
+        <f>H45</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B47" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="F38" s="8" t="str">
-        <f>F37</f>
-        <v>pyPageSummary</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>H34</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G47" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>relatedPages/tf_idf_weigths</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="8" t="str">
-        <f>H35</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B40" s="7">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F40" s="8" t="str">
-        <f>F39</f>
-        <v>pyPageSummary/model</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="8" t="str">
-        <f>H39</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B42" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F42" s="8" t="str">
-        <f>F41</f>
-        <v>pyPageSummary/tokenizer</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f>F35</f>
-        <v>---</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B44" s="7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="8" t="str">
-        <f>H43</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B45" s="7">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F45" s="8" t="str">
-        <f>F44</f>
-        <v>relatedPages</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" s="8" t="str">
-        <f>H37</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B46" s="7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F46" s="8" t="str">
-        <f>F45</f>
-        <v>relatedPages</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B47" s="7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="G48" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>autoExcerpt/keywords
+minKeywordLength</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2385,8 +2803,10 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2397,8 +2817,10 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2409,8 +2831,10 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2421,8 +2845,10 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2433,8 +2859,10 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2445,8 +2873,10 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2457,8 +2887,10 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2469,8 +2901,10 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2481,8 +2915,10 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2493,8 +2929,10 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2505,8 +2943,10 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2517,8 +2957,10 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2529,8 +2971,10 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2541,8 +2985,10 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2553,9 +2999,23 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
+  <autoFilter ref="B2:J2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42FB9DB6-B5F2-3849-A2E6-E3B236CBA724}">
+          <x14:formula1>
+            <xm:f>configs!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14922671-1CE2-B146-9531-FE8465FE4C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1C80A-F21D-AA4D-9E4D-0465A01B77F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="-4580" windowWidth="39220" windowHeight="24080" activeTab="2" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20320" activeTab="2" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
   <sheets>
     <sheet name="configs" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="411">
   <si>
     <t>File</t>
   </si>
@@ -630,6 +630,665 @@
   </si>
   <si>
     <t>Key in Section</t>
+  </si>
+  <si>
+    <t>Maximum row height</t>
+  </si>
+  <si>
+    <t>The maximum height of a table row (in px) used for dynamic column's widths calculation and resizing</t>
+  </si>
+  <si>
+    <t>Similar documents</t>
+  </si>
+  <si>
+    <t>Enable/Disable the automatic generation of a list (ordered desc by a similarity score) of documents with similar content with the current document</t>
+  </si>
+  <si>
+    <t>maxRowHeight</t>
+  </si>
+  <si>
+    <t>pySimilarPagesByContent</t>
+  </si>
+  <si>
+    <t>Similarity threshold</t>
+  </si>
+  <si>
+    <t>Minimum similarity score from which 2 documents may be considered as being similar</t>
+  </si>
+  <si>
+    <t>similarity_threshold</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Siimilarity model</t>
+  </si>
+  <si>
+    <t>model_url</t>
+  </si>
+  <si>
+    <t>The open source model (Huggingface url) used to generate the similarity scores</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Enable/Disable automatic keywords generation for documents</t>
+  </si>
+  <si>
+    <t>pageKeywords</t>
+  </si>
+  <si>
+    <t>Keywords model</t>
+  </si>
+  <si>
+    <t>The open source model (Huggingface url) used to generate the keywords</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>No. of keywords</t>
+  </si>
+  <si>
+    <t>The min. and max. number of keywords that will be generated for a document</t>
+  </si>
+  <si>
+    <t>minKeywords (maxKeywords)</t>
+  </si>
+  <si>
+    <t>GitHub integration</t>
+  </si>
+  <si>
+    <t>Enable/Disable GitHub integration</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>GitHub user</t>
+  </si>
+  <si>
+    <t>GitHub user of organisation used for integration</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>GitHub repository</t>
+  </si>
+  <si>
+    <t>Usually the repository where the documentation is stored. It can be also the repository where the documentation subject matter is storred (such as a softwware product). Must be a public repository.</t>
+  </si>
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
+    <t>GitHub discussion organisation</t>
+  </si>
+  <si>
+    <t>The GitHub organisation on which discussions were about the documentation or the subject matter of the documentation are enabled</t>
+  </si>
+  <si>
+    <t>discussionOrg</t>
+  </si>
+  <si>
+    <t>Reading time</t>
+  </si>
+  <si>
+    <t>Enable/Disable the automatic calculation of the estimated document reading time</t>
+  </si>
+  <si>
+    <t>readingTime</t>
+  </si>
+  <si>
+    <t>Reading time parameters</t>
+  </si>
+  <si>
+    <t>The parameters used in the calculation of the document reading time (adult avg reading speed, reading speed when focusing on comprehension, speed reading rate)</t>
+  </si>
+  <si>
+    <t>number
+number
+number</t>
+  </si>
+  <si>
+    <t>average_adult (comprehension_study; skimming_study)</t>
+  </si>
+  <si>
+    <t>Algolia search</t>
+  </si>
+  <si>
+    <t>Algolia search settings</t>
+  </si>
+  <si>
+    <t>algoliaSearch</t>
+  </si>
+  <si>
+    <t>Parameters used in browser to configure Algolia  DocSearch client (see Algolia DocSearch documentation)</t>
+  </si>
+  <si>
+    <t>Left footer content</t>
+  </si>
+  <si>
+    <t>Content to be shown in the left sidebar footer (i.e. copyright info, links to Terms, Privacy, etc.)</t>
+  </si>
+  <si>
+    <t>siteFooter</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>GA integration</t>
+  </si>
+  <si>
+    <t>Enable/Disable Google Analytics integration</t>
+  </si>
+  <si>
+    <t>googleAnalytics</t>
+  </si>
+  <si>
+    <t>GA id</t>
+  </si>
+  <si>
+    <t>Google Analytics property (G-….)</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>GTM integration</t>
+  </si>
+  <si>
+    <t>Enable/Disable Google Tag Manager integration</t>
+  </si>
+  <si>
+    <t>googleTagManager</t>
+  </si>
+  <si>
+    <t>GTM id</t>
+  </si>
+  <si>
+    <t>Google Tag Manager ID (GTM-….)</t>
+  </si>
+  <si>
+    <t>gtm</t>
+  </si>
+  <si>
+    <t>Breadcrumbs depth</t>
+  </si>
+  <si>
+    <t>Set the depth of breadcrumbs which are shown for parent-child documents</t>
+  </si>
+  <si>
+    <t>breadcrumbs</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>HubSpot Portal ID</t>
+  </si>
+  <si>
+    <t>hubspot</t>
+  </si>
+  <si>
+    <t>portalID</t>
+  </si>
+  <si>
+    <t>The HubSpot portal ID in case if HubSpot integration is enabled (see HubSpot documentation)</t>
+  </si>
+  <si>
+    <t>HubSpot region</t>
+  </si>
+  <si>
+    <t>The region of HubSpot portal (see HubSpot documentation)</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>HubSpot feedback form</t>
+  </si>
+  <si>
+    <t>The ID of the HubSpot form used for feedback (Ws the doc useful?)</t>
+  </si>
+  <si>
+    <t>hubspot/feedbackFormID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Enable/Disable FAQ page</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>FAQ pagination</t>
+  </si>
+  <si>
+    <t>Enable/Disable pagination for FAQ page</t>
+  </si>
+  <si>
+    <t>pagination</t>
+  </si>
+  <si>
+    <t>FAQ pagination buttons (desktop)</t>
+  </si>
+  <si>
+    <t>Number of questions per FAQ page on desktop (if pagination is enabled)</t>
+  </si>
+  <si>
+    <t>displayedPagesDesktop</t>
+  </si>
+  <si>
+    <t>FAQ pagination buttons (mobile)</t>
+  </si>
+  <si>
+    <t>Number of questions per FAQ page on mobile (if pagination is enabled)</t>
+  </si>
+  <si>
+    <t>displayedPagesMobile</t>
+  </si>
+  <si>
+    <t>Questions per page</t>
+  </si>
+  <si>
+    <t>Number of questions per page (if pagination is enabled)</t>
+  </si>
+  <si>
+    <t>perPage</t>
+  </si>
+  <si>
+    <t>FAQ ToC</t>
+  </si>
+  <si>
+    <t>Include/Exclude questions from page ToC</t>
+  </si>
+  <si>
+    <t>faqToc</t>
+  </si>
+  <si>
+    <t>Components settings</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Settings for some of the components</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>Figma component</t>
+  </si>
+  <si>
+    <t>Settings for Figma component</t>
+  </si>
+  <si>
+    <t>elements/figma</t>
+  </si>
+  <si>
+    <t>Figma load message</t>
+  </si>
+  <si>
+    <t>loadMessage</t>
+  </si>
+  <si>
+    <t>Figma embed url</t>
+  </si>
+  <si>
+    <t>The url used by Figma embed API</t>
+  </si>
+  <si>
+    <t>The message sent by Figma embed API when an item is loaded</t>
+  </si>
+  <si>
+    <t>embedSourceUrl</t>
+  </si>
+  <si>
+    <t>Figma base url</t>
+  </si>
+  <si>
+    <t>Figma url</t>
+  </si>
+  <si>
+    <t>figmaBaseUrl</t>
+  </si>
+  <si>
+    <t>The urls from which to allow embedding components</t>
+  </si>
+  <si>
+    <t>allowedUrl</t>
+  </si>
+  <si>
+    <t>yml array</t>
+  </si>
+  <si>
+    <t>Embed allowed urls</t>
+  </si>
+  <si>
+    <t>Card settings</t>
+  </si>
+  <si>
+    <t>Settings for card component</t>
+  </si>
+  <si>
+    <t>elements/card</t>
+  </si>
+  <si>
+    <t>Default card width</t>
+  </si>
+  <si>
+    <t>cardWidth</t>
+  </si>
+  <si>
+    <t>Default card image height</t>
+  </si>
+  <si>
+    <t>The default height of images in card header</t>
+  </si>
+  <si>
+    <t>The default width of a card</t>
+  </si>
+  <si>
+    <t>cardImgHeight</t>
+  </si>
+  <si>
+    <t>Default card text size</t>
+  </si>
+  <si>
+    <t>The defaul size of the fonts of the text inside card body</t>
+  </si>
+  <si>
+    <t>cardImgText</t>
+  </si>
+  <si>
+    <t>DOCX/PDF summary</t>
+  </si>
+  <si>
+    <t>Settings for the component generating DOCX/PDF summaries</t>
+  </si>
+  <si>
+    <t>extDocSummary</t>
+  </si>
+  <si>
+    <t>DOCX summarisation model</t>
+  </si>
+  <si>
+    <t>The model used for generating DOCX summaries</t>
+  </si>
+  <si>
+    <t>word_sum_model</t>
+  </si>
+  <si>
+    <t>PDF summarisatiion model</t>
+  </si>
+  <si>
+    <t>The model used to generate PDF summaries</t>
+  </si>
+  <si>
+    <t>pdf_sum_model</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Settings for the home page</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Site entry document</t>
+  </si>
+  <si>
+    <t>The permalink of the document that is the entry of the documentation (such as Introduction or similar)</t>
+  </si>
+  <si>
+    <t>startPermalink</t>
+  </si>
+  <si>
+    <t>Home page sections</t>
+  </si>
+  <si>
+    <t>Settings for the sections of the home page</t>
+  </si>
+  <si>
+    <t>/sections</t>
+  </si>
+  <si>
+    <t>Header section</t>
+  </si>
+  <si>
+    <t>Settinggs for the header section of the home page</t>
+  </si>
+  <si>
+    <t>/sections/header_section</t>
+  </si>
+  <si>
+    <t>Documentation title (may be different and more detailed than the site title from _config.yml)</t>
+  </si>
+  <si>
+    <t>Documentation title</t>
+  </si>
+  <si>
+    <t>Section text</t>
+  </si>
+  <si>
+    <t>The text shown under the title as description of the site/documetation</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>string/html</t>
+  </si>
+  <si>
+    <t>Text on the start link button</t>
+  </si>
+  <si>
+    <t>The text shown on the link button under the text in the header section. The button targets the entry document, using the permalink earlier explained</t>
+  </si>
+  <si>
+    <t>startBtnText</t>
+  </si>
+  <si>
+    <t>Content of the right column</t>
+  </si>
+  <si>
+    <t>The content (usually media content - image, video) shown on the right column of the header section</t>
+  </si>
+  <si>
+    <t>featuredMedia</t>
+  </si>
+  <si>
+    <t>Collection section</t>
+  </si>
+  <si>
+    <t>Settings for the collection section of the home page</t>
+  </si>
+  <si>
+    <t>/sections/collections_section</t>
+  </si>
+  <si>
+    <t>Show collections on home page</t>
+  </si>
+  <si>
+    <t>Enable/Disable collection section on the home page</t>
+  </si>
+  <si>
+    <t>enabledInHome</t>
+  </si>
+  <si>
+    <t>Collection exceptions</t>
+  </si>
+  <si>
+    <t>List the collections that are NOT shown in the collections section</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>Show docs from collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of documents that are shown in each collection from the collections section (in DESC order of las modified date) </t>
+  </si>
+  <si>
+    <t>itemsToShow</t>
+  </si>
+  <si>
+    <t>Text on collection entry point link button</t>
+  </si>
+  <si>
+    <t>The text shown on the link button that points to a collection entry document (if such entry document is defined for a collection)</t>
+  </si>
+  <si>
+    <t>collectionStartBtnText</t>
+  </si>
+  <si>
+    <t>Collection entry point link button type</t>
+  </si>
+  <si>
+    <t>The class of the link button pointing to the collection entry document (see Bootstrap buttons)</t>
+  </si>
+  <si>
+    <t>buttonsClass</t>
+  </si>
+  <si>
+    <t>Collection entry point link button text type</t>
+  </si>
+  <si>
+    <t>The class of the text shown on the link button</t>
+  </si>
+  <si>
+    <t>buttonsTextClass</t>
+  </si>
+  <si>
+    <t>Most recent and popular docs section</t>
+  </si>
+  <si>
+    <t>Settings for the section containing the most recent and most popular documents</t>
+  </si>
+  <si>
+    <t>/sections/mostRecentAndPopular_section</t>
+  </si>
+  <si>
+    <t>Documents shown in the most recent and popular docs section</t>
+  </si>
+  <si>
+    <t>The number of documenrts shown in the most recent and popular docs section</t>
+  </si>
+  <si>
+    <t>recentFilesToShow</t>
+  </si>
+  <si>
+    <t>Link to the list of all documents</t>
+  </si>
+  <si>
+    <t>The text on the button pointing to the list of all documents</t>
+  </si>
+  <si>
+    <t>allDocsBtnText</t>
+  </si>
+  <si>
+    <t>Link to the list of all categories</t>
+  </si>
+  <si>
+    <t>allCatsBtnText</t>
+  </si>
+  <si>
+    <t>Link to the list of all tags</t>
+  </si>
+  <si>
+    <t>The text on the link button pointing to the list of all categories</t>
+  </si>
+  <si>
+    <t>The text on the button pointing to the list of all tags</t>
+  </si>
+  <si>
+    <t>allTagsBtnText</t>
+  </si>
+  <si>
+    <t>The type of the buttons at the bottom of each column of the most recent and popular docs section</t>
+  </si>
+  <si>
+    <t>The class of the link buttons pointing to the list of all documents, categories and tags (see Bootstrap buttons)</t>
+  </si>
+  <si>
+    <t>The type of the text shown on the buttons at the bottom of each column of the most recent and popular docs section</t>
+  </si>
+  <si>
+    <t>The class of the text shown on the link buttons pointing to the list of all documents, categories and tags (see Bootstrap text classes)</t>
+  </si>
+  <si>
+    <t>Statistics section</t>
+  </si>
+  <si>
+    <t>Settings for the documentation statistics section</t>
+  </si>
+  <si>
+    <t>/sections/stats_section</t>
+  </si>
+  <si>
+    <t>Link buttons type</t>
+  </si>
+  <si>
+    <t>The class of link buttons from the statistics section of the home page</t>
+  </si>
+  <si>
+    <t>Link buttons text type</t>
+  </si>
+  <si>
+    <t>The class of the text (icon) shown on the link buttons in the statistics section of the home page</t>
+  </si>
+  <si>
+    <t>Link buttons icon</t>
+  </si>
+  <si>
+    <t>buttonsIcon</t>
+  </si>
+  <si>
+    <t>The icon shown on the link buttons in the statistics section of the home page (see Bootstrap icons)</t>
+  </si>
+  <si>
+    <t>Customise Home page (build time)</t>
+  </si>
+  <si>
+    <t>Customise Home page (run time)</t>
+  </si>
+  <si>
+    <t>Settings for the home page applied at run time</t>
+  </si>
+  <si>
+    <t>Number of popular categories</t>
+  </si>
+  <si>
+    <t>Top X categories based on the number of documents (ordered DESC)</t>
+  </si>
+  <si>
+    <t>popularCatsToShow</t>
+  </si>
+  <si>
+    <t>Number of popular tags</t>
+  </si>
+  <si>
+    <t>Top X tags based on the number of documents (ordered DESC)</t>
+  </si>
+  <si>
+    <t>popularTagsToShow</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD44EFC-ED1A-7C41-9E25-77D338FDDE8A}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1085,22 +1744,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1110,30 +1769,48 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>189</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1228,11 +1905,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,9 +1917,9 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="4" width="25.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" style="10" customWidth="1"/>
     <col min="10" max="10" width="20" style="10" customWidth="1"/>
@@ -1296,7 +1973,7 @@
         <v>_config.yml</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f>IF(H3="",I3,IF(I3&lt;&gt;"",_xlfn.CONCAT(H3,"/",I3),H3))</f>
+        <f t="shared" ref="G3:G8" si="0">IF(H3="",I3,IF(I3&lt;&gt;"",_xlfn.CONCAT(H3,"/",I3),H3))</f>
         <v>title</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1328,7 +2005,7 @@
         <v>_config.yml</v>
       </c>
       <c r="G4" s="8" t="str">
-        <f>IF(H4="",I4,IF(I4&lt;&gt;"",_xlfn.CONCAT(H4,"/",I4),H4))</f>
+        <f t="shared" si="0"/>
         <v>aux_links</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1343,7 +2020,7 @@
     </row>
     <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B63" si="0">B4+1</f>
+        <f t="shared" ref="B5:B68" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1360,7 +2037,7 @@
         <v>_config.yml</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f>IF(H5="",I5,IF(I5&lt;&gt;"",_xlfn.CONCAT(H5,"/",I5),H5))</f>
+        <f t="shared" si="0"/>
         <v>aux_links_new_tab</v>
       </c>
       <c r="H5" s="8" t="str">
@@ -1376,7 +2053,7 @@
     </row>
     <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1393,7 +2070,7 @@
         <v>_config.yml</v>
       </c>
       <c r="G6" s="8" t="str">
-        <f>IF(H6="",I6,IF(I6&lt;&gt;"",_xlfn.CONCAT(H6,"/",I6),H6))</f>
+        <f t="shared" si="0"/>
         <v>collections</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1409,7 +2086,7 @@
     </row>
     <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1426,7 +2103,7 @@
         <v>_config.yml</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f>IF(H7="",I7,IF(I7&lt;&gt;"",_xlfn.CONCAT(H7,"/",I7),H7))</f>
+        <f t="shared" si="0"/>
         <v>just_the_docs/collections</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1443,7 +2120,7 @@
     </row>
     <row r="8" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1459,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="8" t="str">
-        <f>IF(H8="",I8,IF(I8&lt;&gt;"",_xlfn.CONCAT(H8,"/",I8),H8))</f>
+        <f t="shared" si="0"/>
         <v>colSchemaCorrections/textColorOnElementsAffected/light</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -1474,7 +2151,7 @@
     </row>
     <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1487,11 +2164,11 @@
         <v>44</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f t="shared" ref="F9:F33" si="1">F8</f>
+        <f t="shared" ref="F9:F33" si="2">F8</f>
         <v>siteConfig.yml</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" ref="G9:G63" si="2">IF(H9="",I9,IF(I9&lt;&gt;"",_xlfn.CONCAT(H9,"/",I9),H9))</f>
+        <f t="shared" ref="G9:G73" si="3">IF(H9="",I9,IF(I9&lt;&gt;"",_xlfn.CONCAT(H9,"/",I9),H9))</f>
         <v>colSchemaCorrections/backgroundColorOnElementsAffected/light</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1508,7 +2185,7 @@
     </row>
     <row r="10" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1521,11 +2198,11 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G10" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>colSchemaCorrections/textColorOnElementsAffected/dark</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1541,7 +2218,7 @@
     </row>
     <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1554,11 +2231,11 @@
         <v>50</v>
       </c>
       <c r="F11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>colSchemaCorrections/backgroundColorOnElementsAffected/dark</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1575,7 +2252,7 @@
     </row>
     <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1588,11 +2265,11 @@
         <v>52</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>catMenu</v>
       </c>
       <c r="H12" s="8" t="str">
@@ -1608,7 +2285,7 @@
     </row>
     <row r="13" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1621,11 +2298,11 @@
         <v>55</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>similarByContent/maxPages</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -1640,7 +2317,7 @@
     </row>
     <row r="14" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1653,11 +2330,11 @@
         <v>59</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>navPrevNextEnabled</v>
       </c>
       <c r="H14" s="8" t="str">
@@ -1673,7 +2350,7 @@
     </row>
     <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1686,11 +2363,11 @@
         <v>62</v>
       </c>
       <c r="F15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>hsIntegration/enabled</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -1705,7 +2382,7 @@
     </row>
     <row r="16" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1718,11 +2395,11 @@
         <v>67</v>
       </c>
       <c r="F16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G16" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>hsIntegration/forms/submisionSource/propValue</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -1737,7 +2414,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1750,11 +2427,11 @@
         <v>72</v>
       </c>
       <c r="F17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>links/privacyLink</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -1769,7 +2446,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1782,11 +2459,11 @@
         <v>76</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>links/supportLink</v>
       </c>
       <c r="H18" s="8" t="str">
@@ -1802,7 +2479,7 @@
     </row>
     <row r="19" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1815,11 +2492,11 @@
         <v>79</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/enabled</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -1834,7 +2511,7 @@
     </row>
     <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1847,11 +2524,11 @@
         <v>81</v>
       </c>
       <c r="F20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/minWords</v>
       </c>
       <c r="H20" s="8" t="str">
@@ -1868,7 +2545,7 @@
     </row>
     <row r="21" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1881,11 +2558,11 @@
         <v>84</v>
       </c>
       <c r="F21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/maxWords</v>
       </c>
       <c r="H21" s="8" t="str">
@@ -1902,7 +2579,7 @@
     </row>
     <row r="22" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1915,11 +2592,11 @@
         <v>90</v>
       </c>
       <c r="F22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/comments/enabled</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -1935,7 +2612,7 @@
     </row>
     <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1948,11 +2625,11 @@
         <v>92</v>
       </c>
       <c r="F23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/comments/maxChars</v>
       </c>
       <c r="H23" s="8" t="str">
@@ -1969,7 +2646,7 @@
     </row>
     <row r="24" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1982,11 +2659,11 @@
         <v>96</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/comments/maxWords</v>
       </c>
       <c r="H24" s="8" t="str">
@@ -2003,7 +2680,7 @@
     </row>
     <row r="25" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2016,11 +2693,11 @@
         <v>99</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/tags/maxWords</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -2037,7 +2714,7 @@
     </row>
     <row r="26" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2050,11 +2727,11 @@
         <v>100</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>selectedTextContextMenu/tags/maxChars</v>
       </c>
       <c r="H26" s="8" t="str">
@@ -2072,7 +2749,7 @@
     </row>
     <row r="27" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2085,11 +2762,11 @@
         <v>101</v>
       </c>
       <c r="F27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>savedItems/autoSaveBeforeLoad</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -2105,7 +2782,7 @@
     </row>
     <row r="28" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2118,11 +2795,11 @@
         <v>106</v>
       </c>
       <c r="F28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>multilang/enabled</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -2136,9 +2813,9 @@
         <v>true/false</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2151,11 +2828,11 @@
         <v>109</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>multilang/availableLang</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -2168,7 +2845,7 @@
     </row>
     <row r="30" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2181,11 +2858,11 @@
         <v>113</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>multilang/siteLanguage</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -2201,7 +2878,7 @@
     </row>
     <row r="31" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2214,11 +2891,11 @@
         <v>116</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>multilang/fallbackLang</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -2235,7 +2912,7 @@
     </row>
     <row r="32" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2248,11 +2925,11 @@
         <v>118</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dataTables/paginationButtons</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -2268,7 +2945,7 @@
     </row>
     <row r="33" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2281,11 +2958,11 @@
         <v>122</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dataTables/rowsPerPage</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -2302,717 +2979,2838 @@
     </row>
     <row r="34" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f>F33</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>dataTables/maxRowHeight</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>H33</f>
+        <v>dataTables</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f>J33</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>pyEnable</v>
       </c>
-      <c r="H34" s="8" t="str">
+      <c r="H35" s="8" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="8" t="str">
+      <c r="J35" s="8" t="str">
         <f>J27</f>
         <v>true/false</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="36" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="8" t="str">
-        <f>F34</f>
+      <c r="F36" s="8" t="str">
+        <f>F35</f>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G35" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>pyLaunch</v>
       </c>
-      <c r="H35" s="8" t="str">
-        <f>H34</f>
+      <c r="H36" s="8" t="str">
+        <f>H35</f>
         <v/>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="8" t="str">
+      <c r="J36" s="8" t="str">
         <f>J16</f>
         <v>string</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f t="shared" ref="F36:F48" si="3">F35</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G36" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/allInOneStep</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f>J34</f>
-        <v>true/false</v>
-      </c>
-    </row>
     <row r="37" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F37:F49" si="4">F36</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/summaryLength</v>
-      </c>
-      <c r="H37" s="8" t="str">
-        <f>H36</f>
-        <v>pyPageSummary</v>
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/allInOneStep</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="8" t="str">
-        <f>J33</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+        <f>J35</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/usePrompt</v>
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/summaryLength</v>
       </c>
       <c r="H38" s="8" t="str">
         <f>H37</f>
         <v>pyPageSummary</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J38" s="8" t="str">
-        <f>J34</f>
-        <v>true/false</v>
+        <f>J33</f>
+        <v>number</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/model/name</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/usePrompt</v>
+      </c>
+      <c r="H39" s="8" t="str">
+        <f>H38</f>
+        <v>pyPageSummary</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J39" s="8" t="str">
         <f>J35</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="102" x14ac:dyDescent="0.2">
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/model</v>
-      </c>
-      <c r="H40" s="8" t="str">
-        <f>H39</f>
-        <v>pyPageSummary/model</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/model/name</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f>J36</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>pyPageSummary/tokenizer/prompt</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="8" t="str">
-        <f>J39</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="H41" s="8" t="str">
+        <f>H40</f>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pyPageSummary/tokenizer/prompt</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f>J40</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="F43" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G42" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>pyPageSummary/tokenizer</v>
       </c>
-      <c r="H42" s="8" t="str">
-        <f>H41</f>
+      <c r="H43" s="8" t="str">
+        <f>H42</f>
         <v>pyPageSummary/tokenizer</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G43" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>preFlight</v>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f>H35</f>
-        <v/>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>preFlight</v>
+      </c>
+      <c r="H44" s="8" t="str">
+        <f>H36</f>
+        <v/>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G44" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>relatedPages/enable</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J44" s="8" t="str">
-        <f>J43</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B45" s="7">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G45" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>relatedPages/relPagesNo</v>
-      </c>
-      <c r="H45" s="8" t="str">
-        <f>H44</f>
-        <v>relatedPages</v>
+        <f t="shared" si="3"/>
+        <v>relatedPages/enable</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J45" s="8" t="str">
-        <f>J37</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J44</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>relatedPages/scoreLimit</v>
+        <f t="shared" si="3"/>
+        <v>relatedPages/relPagesNo</v>
       </c>
       <c r="H46" s="8" t="str">
         <f>H45</f>
         <v>relatedPages</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f>J38</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G47" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>relatedPages/scoreLimit</v>
+      </c>
+      <c r="H47" s="8" t="str">
+        <f>H46</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="F48" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G47" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G48" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>relatedPages/tf_idf_weigths</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="8" t="s">
+    <row r="49" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G48" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>autoExcerpt/keywords
 minKeywordLength</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="7">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f>F49</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pySimilarPagesByContent/enable</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f>J45</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f>F50</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pySimilarPagesByContent/similarity_threshold</v>
+      </c>
+      <c r="H51" s="8" t="str">
+        <f>H50</f>
+        <v>pySimilarPagesByContent</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C52" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f>F51</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pySimilarPagesByContent/model_url</v>
+      </c>
+      <c r="H52" s="8" t="str">
+        <f>H51</f>
+        <v>pySimilarPagesByContent</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="8" t="str">
+        <f>F52</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pageKeywords/enable</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f>J50</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="8" t="str">
+        <f>F53</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G54" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pageKeywords/model</v>
+      </c>
+      <c r="H54" s="8" t="str">
+        <f>H53</f>
+        <v>pageKeywords</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f>J52</f>
+        <v>url</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C55" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="8" t="str">
+        <f>F54</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G55" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pageKeywords/minKeywords (maxKeywords)</v>
+      </c>
+      <c r="H55" s="8" t="str">
+        <f>H54</f>
+        <v>pageKeywords</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f>J49</f>
+        <v>number
+number</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C56" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f>F55</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>github/enabled</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f>J53</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C57" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="8" t="str">
+        <f>F56</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>github/user</v>
+      </c>
+      <c r="H57" s="8" t="str">
+        <f>H56</f>
+        <v>github</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f>J42</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="8" t="str">
+        <f>F57</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>github/repo</v>
+      </c>
+      <c r="H58" s="8" t="str">
+        <f>H57</f>
+        <v>github</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f>J57</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C59" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="8" t="str">
+        <f>F58</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G59" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>github/discussionOrg</v>
+      </c>
+      <c r="H59" s="8" t="str">
+        <f>H58</f>
+        <v>github</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f>J58</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C60" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="8" t="str">
+        <f>F59</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>readingTime/enabled</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f>J56</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C61" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="8" t="str">
+        <f>F60</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>readingTime/average_adult (comprehension_study; skimming_study)</v>
+      </c>
+      <c r="H61" s="8" t="str">
+        <f>H60</f>
+        <v>readingTime</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F62" s="8" t="str">
+        <f>F61</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G62" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>algoliaSearch</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="8" t="str">
+        <f>F62</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G63" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>siteFooter/rows</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="8" t="str">
+        <f>F63</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G64" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>googleAnalytics/enabled</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f>J60</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="8" t="str">
+        <f>F64</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G65" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>googleAnalytics/ga</v>
+      </c>
+      <c r="H65" s="8" t="str">
+        <f>H64</f>
+        <v>googleAnalytics</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f>J59</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="7">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="8" t="str">
+        <f>F65</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G66" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>googleTagManager/enabled</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="8" t="str">
+        <f>I64</f>
+        <v>enabled</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f>J64</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="8" t="str">
+        <f>F66</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G67" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>googleTagManager/gtm</v>
+      </c>
+      <c r="H67" s="8" t="str">
+        <f>H66</f>
+        <v>googleTagManager</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f>J65</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" s="8" t="str">
+        <f>F67</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>breadcrumbs/depth</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f>J46</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B69" s="7">
+        <f t="shared" ref="B69:B119" si="5">B68+1</f>
+        <v>67</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="8" t="str">
+        <f>F68</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>hubspot/portalID</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f>J67</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B70" s="7">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="8" t="str">
+        <f>F69</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G70" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>hubspot/region</v>
+      </c>
+      <c r="H70" s="8" t="str">
+        <f>H69</f>
+        <v>hubspot</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="8" t="str">
+        <f>J69</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B71" s="7">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="8" t="str">
+        <f>F70</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G71" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>hubspot/feedbackFormID/ID</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="8" t="str">
+        <f>J70</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" s="7">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="8" t="str">
+        <f>F71</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>faq/enabled</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f>J66</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="8" t="str">
+        <f>F72</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G73" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>faq/pagination</v>
+      </c>
+      <c r="H73" s="8" t="str">
+        <f>H72</f>
+        <v>faq</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J73" s="8" t="str">
+        <f>J72</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B74" s="7">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74" s="8" t="str">
+        <f>F73</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G74" s="8" t="str">
+        <f t="shared" ref="G74:G119" si="6">IF(H74="",I74,IF(I74&lt;&gt;"",_xlfn.CONCAT(H74,"/",I74),H74))</f>
+        <v>faq/displayedPagesDesktop</v>
+      </c>
+      <c r="H74" s="8" t="str">
+        <f>H73</f>
+        <v>faq</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J74" s="8" t="str">
+        <f>J68</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B75" s="7">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="8" t="str">
+        <f>F74</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G75" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>faq/displayedPagesMobile</v>
+      </c>
+      <c r="H75" s="8" t="str">
+        <f>H74</f>
+        <v>faq</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J75" s="8" t="str">
+        <f>J74</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B76" s="7">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" s="8" t="str">
+        <f>F75</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G76" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>faq/perPage</v>
+      </c>
+      <c r="H76" s="8" t="str">
+        <f>H75</f>
+        <v>faq</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J76" s="8" t="str">
+        <f>J75</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B77" s="7">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="8" t="str">
+        <f>F76</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G77" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>faq/faqToc</v>
+      </c>
+      <c r="H77" s="8" t="str">
+        <f>H76</f>
+        <v>faq</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J77" s="8" t="str">
+        <f>J73</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F78" s="8" t="str">
+        <f>F77</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G78" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B79" s="7">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="8" t="str">
+        <f>F78</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G79" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/figma</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B80" s="7">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="8" t="str">
+        <f>F79</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G80" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/figma/loadMessage</v>
+      </c>
+      <c r="H80" s="8" t="str">
+        <f>H79</f>
+        <v>elements/figma</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J80" s="8" t="str">
+        <f>J71</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B81" s="7">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F81" s="8" t="str">
+        <f>F80</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G81" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/figma/embedSourceUrl</v>
+      </c>
+      <c r="H81" s="8" t="str">
+        <f>H80</f>
+        <v>elements/figma</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J81" s="8" t="str">
+        <f>J80</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B82" s="7">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="8" t="str">
+        <f>F81</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G82" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/figma/figmaBaseUrl</v>
+      </c>
+      <c r="H82" s="8" t="str">
+        <f>H81</f>
+        <v>elements/figma</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J82" s="8" t="str">
+        <f>J81</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B83" s="7">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="8" t="str">
+        <f>F82</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G83" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/figma/allowedUrl</v>
+      </c>
+      <c r="H83" s="8" t="str">
+        <f>H82</f>
+        <v>elements/figma</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="7">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="8" t="str">
+        <f>F83</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G84" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/card</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B85" s="7">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="8" t="str">
+        <f>F84</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G85" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/card/cardWidth</v>
+      </c>
+      <c r="H85" s="8" t="str">
+        <f>H84</f>
+        <v>elements/card</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f>J82</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B86" s="7">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="8" t="str">
+        <f>F85</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G86" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/card/cardImgHeight</v>
+      </c>
+      <c r="H86" s="8" t="str">
+        <f>H85</f>
+        <v>elements/card</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J86" s="8" t="str">
+        <f>J85</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B87" s="7">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F87" s="8" t="str">
+        <f>F86</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G87" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>elements/card/cardImgText</v>
+      </c>
+      <c r="H87" s="8" t="str">
+        <f>H86</f>
+        <v>elements/card</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J87" s="8" t="str">
+        <f>J86</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="7">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="8" t="str">
+        <f>F87</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G88" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>extDocSummary</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B89" s="7">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F89" s="8" t="str">
+        <f>F88</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G89" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>extDocSummary/word_sum_model</v>
+      </c>
+      <c r="H89" s="8" t="str">
+        <f>H88</f>
+        <v>extDocSummary</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J89" s="8" t="str">
+        <f>J87</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B90" s="7">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F90" s="8" t="str">
+        <f>F89</f>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G90" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>extDocSummary/pdf_sum_model</v>
+      </c>
+      <c r="H90" s="8" t="str">
+        <f>H89</f>
+        <v>extDocSummary</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J90" s="8" t="str">
+        <f>J89</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B91" s="7">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F91" s="8" t="str">
+        <f>Tables!B7</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G91" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B92" s="7">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F92" s="8" t="str">
+        <f>F91</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G92" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>//startPermalink</v>
+      </c>
+      <c r="H92" s="8" t="str">
+        <f>H91</f>
+        <v>/</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" s="8" t="str">
+        <f>J90</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B93" s="7">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" s="8" t="str">
+        <f>F92</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G93" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B94" s="7">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" s="8" t="str">
+        <f>F93</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G94" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B95" s="7">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" s="8" t="str">
+        <f>F94</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G95" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/header_section/title</v>
+      </c>
+      <c r="H95" s="8" t="str">
+        <f>H94</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="8" t="str">
+        <f>J92</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B96" s="7">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" s="8" t="str">
+        <f>F95</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G96" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/header_section/text</v>
+      </c>
+      <c r="H96" s="8" t="str">
+        <f>H95</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B97" s="7">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F97" s="8" t="str">
+        <f>F96</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G97" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/header_section/startBtnText</v>
+      </c>
+      <c r="H97" s="8" t="str">
+        <f>H96</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J97" s="8" t="str">
+        <f>J95</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B98" s="7">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="8" t="str">
+        <f>F97</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G98" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/header_section/featuredMedia</v>
+      </c>
+      <c r="H98" s="8" t="str">
+        <f>H97</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B99" s="7">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F99" s="8" t="str">
+        <f>F98</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G99" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B100" s="7">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F100" s="8" t="str">
+        <f>F99</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G100" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/enabledInHome</v>
+      </c>
+      <c r="H100" s="8" t="str">
+        <f>H99</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J100" s="8" t="str">
+        <f>J77</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B101" s="7">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" s="8" t="str">
+        <f>F100</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G101" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/except</v>
+      </c>
+      <c r="H101" s="8" t="str">
+        <f>H100</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B102" s="7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" s="8" t="str">
+        <f>F101</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G102" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/itemsToShow</v>
+      </c>
+      <c r="H102" s="8" t="str">
+        <f>H101</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B103" s="7">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103" s="8" t="str">
+        <f>F102</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G103" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/collectionStartBtnText</v>
+      </c>
+      <c r="H103" s="8" t="str">
+        <f>H102</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B104" s="7">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F104" s="8" t="str">
+        <f>F103</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G104" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/buttonsClass</v>
+      </c>
+      <c r="H104" s="8" t="str">
+        <f>H103</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J104" s="8" t="str">
+        <f>J103</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B105" s="7">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F105" s="8" t="str">
+        <f>F104</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G105" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/collections_section/buttonsTextClass</v>
+      </c>
+      <c r="H105" s="8" t="str">
+        <f>H104</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J105" s="8" t="str">
+        <f>J104</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B106" s="7">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" s="8" t="str">
+        <f>F105</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G106" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B107" s="7">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" s="8" t="str">
+        <f>F106</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G107" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/recentFilesToShow</v>
+      </c>
+      <c r="H107" s="8" t="str">
+        <f>H106</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B108" s="7">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F108" s="8" t="str">
+        <f>F107</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G108" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/allDocsBtnText</v>
+      </c>
+      <c r="H108" s="8" t="str">
+        <f>H107</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B109" s="7">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F109" s="8" t="str">
+        <f>F108</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G109" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/allCatsBtnText</v>
+      </c>
+      <c r="H109" s="8" t="str">
+        <f>H108</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J109" s="8" t="str">
+        <f>J108</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B110" s="7">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F110" s="8" t="str">
+        <f>F109</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G110" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/allTagsBtnText</v>
+      </c>
+      <c r="H110" s="8" t="str">
+        <f>H109</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J110" s="8" t="str">
+        <f>J109</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B111" s="7">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F111" s="8" t="str">
+        <f>F110</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G111" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/buttonsClass</v>
+      </c>
+      <c r="H111" s="8" t="str">
+        <f>H110</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J111" s="8" t="str">
+        <f>J110</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B112" s="7">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" s="8" t="str">
+        <f>F111</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G112" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/buttonsTextClass</v>
+      </c>
+      <c r="H112" s="8" t="str">
+        <f>H111</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J112" s="8" t="str">
+        <f>J111</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B113" s="7">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F113" s="8" t="str">
+        <f>F112</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G113" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B114" s="7">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F114" s="8" t="str">
+        <f>F113</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G114" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/stats_section/buttonsClass</v>
+      </c>
+      <c r="H114" s="8" t="str">
+        <f>H113</f>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" s="8" t="str">
+        <f>J112</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B115" s="7">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F115" s="8" t="str">
+        <f>F114</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G115" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/stats_section/buttonsTextClass</v>
+      </c>
+      <c r="H115" s="8" t="str">
+        <f>H114</f>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J115" s="8" t="str">
+        <f>J114</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B116" s="7">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F116" s="8" t="str">
+        <f>F115</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G116" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/stats_section/buttonsIcon</v>
+      </c>
+      <c r="H116" s="8" t="str">
+        <f>H115</f>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J116" s="8" t="str">
+        <f>J115</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B117" s="7">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F117" s="8" t="str">
+        <f>Tables!B7</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G117" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B118" s="7">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F118" s="8" t="str">
+        <f>F117</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G118" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/popularCatsToShow</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B119" s="7">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F119" s="8" t="str">
+        <f>F118</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G119" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>/sections/mostRecentAndPopular_section/popularTagsToShow</v>
+      </c>
+      <c r="H119" s="8" t="str">
+        <f>H118</f>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J119" s="8" t="str">
+        <f>J118</f>
+        <v>number</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:J2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42FB9DB6-B5F2-3849-A2E6-E3B236CBA724}">
           <x14:formula1>
             <xm:f>configs!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D63</xm:sqref>
+          <xm:sqref>D4:D77</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{303AC917-8B49-D84F-A097-8C9DA4BBAA64}">
+          <x14:formula1>
+            <xm:f>configs!$A$1:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3 D78:D90</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7E0F850-1F52-2E4D-AEF4-4B26108DC5D3}">
+          <x14:formula1>
+            <xm:f>configs!$A$1:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D91:D119</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1C80A-F21D-AA4D-9E4D-0465A01B77F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950834B2-B070-9B42-9880-FAACAA6F491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20320" activeTab="2" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="415">
   <si>
     <t>File</t>
   </si>
@@ -1289,6 +1289,18 @@
   </si>
   <si>
     <t>popularTagsToShow</t>
+  </si>
+  <si>
+    <t>layouts/headerArea</t>
+  </si>
+  <si>
+    <t>siteLogo</t>
+  </si>
+  <si>
+    <t>Set the site logo image by pointing to an immage inside assets/img directory</t>
+  </si>
+  <si>
+    <t>Site logo</t>
   </si>
 </sst>
 </file>
@@ -1905,11 +1917,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:J119"/>
+  <dimension ref="B2:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2032,7 @@
     </row>
     <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B68" si="1">B4+1</f>
+        <f t="shared" ref="B5:B69" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2164,11 +2176,11 @@
         <v>44</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f t="shared" ref="F9:F33" si="2">F8</f>
+        <f t="shared" ref="F9:F34" si="2">F8</f>
         <v>siteConfig.yml</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" ref="G9:G73" si="3">IF(H9="",I9,IF(I9&lt;&gt;"",_xlfn.CONCAT(H9,"/",I9),H9))</f>
+        <f t="shared" ref="G9:G74" si="3">IF(H9="",I9,IF(I9&lt;&gt;"",_xlfn.CONCAT(H9,"/",I9),H9))</f>
         <v>colSchemaCorrections/backgroundColorOnElementsAffected/light</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2250,84 +2262,85 @@
         <v>web color code</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>F11</f>
+        <v>siteConfig.yml</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>layouts/headerArea/siteLogo</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f>J3</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="F13" s="8" t="str">
+        <f>F11</f>
         <v>siteConfig.yml</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G13" s="8" t="str">
         <f t="shared" si="3"/>
         <v>catMenu</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f>H3</f>
         <v/>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    <row r="14" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>siteConfig.yml</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>similarByContent/maxPages</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2335,17 +2348,16 @@
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>navPrevNextEnabled</v>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f>H12</f>
-        <v/>
+        <v>similarByContent/maxPages</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -2354,13 +2366,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2368,13 +2380,14 @@
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>hsIntegration/enabled</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>63</v>
+        <v>navPrevNextEnabled</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>H13</f>
+        <v/>
       </c>
       <c r="I15" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>31</v>
@@ -2386,13 +2399,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2400,31 +2413,31 @@
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>hsIntegration/forms/submisionSource/propValue</v>
+        <v>hsIntegration/enabled</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2432,16 +2445,16 @@
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>links/privacyLink</v>
+        <v>hsIntegration/forms/submisionSource/propValue</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -2450,13 +2463,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2464,32 +2477,31 @@
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>links/supportLink</v>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f>H17</f>
-        <v>links</v>
+        <v>links/privacyLink</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F19" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2497,31 +2509,32 @@
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/enabled</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>80</v>
+        <v>links/supportLink</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f>H18</f>
+        <v>links</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2529,18 +2542,16 @@
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/minWords</v>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f>H19</f>
-        <v>selectedTextContextMenu</v>
+        <v>selectedTextContextMenu/enabled</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f>J13</f>
-        <v>number</v>
+        <v>64</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -2549,13 +2560,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2563,17 +2574,17 @@
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/maxWords</v>
+        <v>selectedTextContextMenu/minWords</v>
       </c>
       <c r="H21" s="8" t="str">
         <f>H20</f>
         <v>selectedTextContextMenu</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="8" t="str">
-        <f>J20</f>
+        <f>J14</f>
         <v>number</v>
       </c>
     </row>
@@ -2583,13 +2594,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F22" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2597,32 +2608,33 @@
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/comments/enabled</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>89</v>
+        <v>selectedTextContextMenu/maxWords</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f>H21</f>
+        <v>selectedTextContextMenu</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J22" s="8" t="str">
-        <f>J19</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+        <f>J21</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2630,33 +2642,32 @@
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/comments/maxChars</v>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f>H22</f>
-        <v>selectedTextContextMenu/comments</v>
+        <v>selectedTextContextMenu/comments/enabled</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="J23" s="8" t="str">
-        <f>J21</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J20</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2664,33 +2675,33 @@
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/comments/maxWords</v>
+        <v>selectedTextContextMenu/comments/maxChars</v>
       </c>
       <c r="H24" s="8" t="str">
         <f>H23</f>
         <v>selectedTextContextMenu/comments</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J24" s="8" t="str">
-        <f>J23</f>
+        <f>J22</f>
         <v>number</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2698,14 +2709,14 @@
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/tags/maxWords</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="8" t="str">
-        <f>I24</f>
-        <v>maxWords</v>
+        <v>selectedTextContextMenu/comments/maxWords</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f>H24</f>
+        <v>selectedTextContextMenu/comments</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="J25" s="8" t="str">
         <f>J24</f>
@@ -2718,13 +2729,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2732,15 +2743,14 @@
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>selectedTextContextMenu/tags/maxChars</v>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f>H25</f>
-        <v>selectedTextContextMenu/tags</v>
+        <v>selectedTextContextMenu/tags/maxWords</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f>I23</f>
-        <v>maxChars</v>
+        <f>I25</f>
+        <v>maxWords</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>J25</f>
@@ -2753,13 +2763,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2767,32 +2777,34 @@
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>savedItems/autoSaveBeforeLoad</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>104</v>
+        <v>selectedTextContextMenu/tags/maxChars</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f>H26</f>
+        <v>selectedTextContextMenu/tags</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f>I24</f>
+        <v>maxChars</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f>J22</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J26</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2800,16 +2812,16 @@
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>multilang/enabled</v>
+        <v>savedItems/autoSaveBeforeLoad</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="J28" s="8" t="str">
-        <f>J27</f>
+        <f>J23</f>
         <v>true/false</v>
       </c>
     </row>
@@ -2819,13 +2831,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2833,29 +2845,32 @@
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>multilang/availableLang</v>
+        <v>multilang/enabled</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f>J28</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2863,32 +2878,29 @@
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>multilang/siteLanguage</v>
+        <v>multilang/availableLang</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>J26</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="102" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2896,33 +2908,32 @@
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>multilang/fallbackLang</v>
-      </c>
-      <c r="H31" s="8" t="str">
-        <f>H30</f>
-        <v>multilang</v>
+        <v>multilang/siteLanguage</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J31" s="8" t="str">
-        <f>J30</f>
+        <f>J27</f>
         <v>number</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2930,32 +2941,33 @@
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>dataTables/paginationButtons</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>119</v>
+        <v>multilang/fallbackLang</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f>H31</f>
+        <v>multilang</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J32" s="8" t="str">
         <f>J31</f>
         <v>number</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2963,48 +2975,47 @@
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>dataTables/rowsPerPage</v>
-      </c>
-      <c r="H33" s="8" t="str">
-        <f>H32</f>
-        <v>dataTables</v>
+        <v>dataTables/paginationButtons</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J33" s="8" t="str">
         <f>J32</f>
         <v>number</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f>F33</f>
+        <f t="shared" si="2"/>
         <v>siteConfig.yml</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>dataTables/maxRowHeight</v>
+        <v>dataTables/rowsPerPage</v>
       </c>
       <c r="H34" s="8" t="str">
         <f>H33</f>
         <v>dataTables</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="J34" s="8" t="str">
         <f>J33</f>
@@ -3017,65 +3028,65 @@
         <v>33</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f>F34</f>
+        <v>siteConfig.yml</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyEnable</v>
+        <v>dataTables/maxRowHeight</v>
       </c>
       <c r="H35" s="8" t="str">
-        <f>H14</f>
-        <v/>
+        <f>H34</f>
+        <v>dataTables</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="J35" s="8" t="str">
-        <f>J27</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J34</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f>F35</f>
-        <v>buildConfig.yml</v>
+        <v>126</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G36" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyLaunch</v>
+        <v>pyEnable</v>
       </c>
       <c r="H36" s="8" t="str">
-        <f>H35</f>
+        <f>H15</f>
         <v/>
       </c>
       <c r="I36" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J36" s="8" t="str">
-        <f>J16</f>
-        <v>string</v>
+        <f>J28</f>
+        <v>true/false</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -3084,31 +3095,32 @@
         <v>35</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" ref="F37:F49" si="4">F36</f>
+        <f>F36</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="G37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/allInOneStep</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>130</v>
+        <v>pyLaunch</v>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f>H36</f>
+        <v/>
       </c>
       <c r="I37" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J37" s="8" t="str">
-        <f>J35</f>
-        <v>true/false</v>
+        <f>J17</f>
+        <v>string</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -3117,47 +3129,46 @@
         <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F38:F50" si="4">F37</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="G38" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/summaryLength</v>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>H37</f>
-        <v>pyPageSummary</v>
+        <v>pyPageSummary/allInOneStep</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38" s="8" t="str">
-        <f>J33</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+        <f>J36</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3165,18 +3176,18 @@
       </c>
       <c r="G39" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/usePrompt</v>
+        <v>pyPageSummary/summaryLength</v>
       </c>
       <c r="H39" s="8" t="str">
         <f>H38</f>
         <v>pyPageSummary</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J39" s="8" t="str">
-        <f>J35</f>
-        <v>true/false</v>
+        <f>J34</f>
+        <v>number</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="68" x14ac:dyDescent="0.2">
@@ -3185,13 +3196,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3199,32 +3210,33 @@
       </c>
       <c r="G40" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/model/name</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>138</v>
+        <v>pyPageSummary/usePrompt</v>
+      </c>
+      <c r="H40" s="8" t="str">
+        <f>H39</f>
+        <v>pyPageSummary</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J40" s="8" t="str">
         <f>J36</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3232,30 +3244,32 @@
       </c>
       <c r="G41" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/model</v>
-      </c>
-      <c r="H41" s="8" t="str">
-        <f>H40</f>
-        <v>pyPageSummary/model</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>pyPageSummary/model/name</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f>J37</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B42" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3263,32 +3277,30 @@
       </c>
       <c r="G42" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/tokenizer/prompt</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f>J40</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="H42" s="8" t="str">
+        <f>H41</f>
+        <v>pyPageSummary/model</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B43" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3296,30 +3308,32 @@
       </c>
       <c r="G43" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pyPageSummary/tokenizer</v>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f>H42</f>
-        <v>pyPageSummary/tokenizer</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <v>pyPageSummary/tokenizer/prompt</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f>J41</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3327,17 +3341,15 @@
       </c>
       <c r="G44" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>preFlight</v>
+        <v>pyPageSummary/tokenizer</v>
       </c>
       <c r="H44" s="8" t="str">
-        <f>H36</f>
-        <v/>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>155</v>
-      </c>
+        <f>H43</f>
+        <v>pyPageSummary/tokenizer</v>
+      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -3346,13 +3358,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3360,32 +3372,32 @@
       </c>
       <c r="G45" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>relatedPages/enable</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>158</v>
+        <v>preFlight</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <f>H37</f>
+        <v/>
       </c>
       <c r="I45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J45" s="8" t="str">
-        <f>J44</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B46" s="7">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3393,33 +3405,32 @@
       </c>
       <c r="G46" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>relatedPages/relPagesNo</v>
-      </c>
-      <c r="H46" s="8" t="str">
-        <f>H45</f>
-        <v>relatedPages</v>
+        <v>relatedPages/enable</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J46" s="8" t="str">
-        <f>J38</f>
-        <v>number</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J45</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B47" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3427,32 +3438,33 @@
       </c>
       <c r="G47" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>relatedPages/scoreLimit</v>
+        <v>relatedPages/relPagesNo</v>
       </c>
       <c r="H47" s="8" t="str">
         <f>H46</f>
         <v>relatedPages</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f>J39</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="7">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3460,29 +3472,32 @@
       </c>
       <c r="G48" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>relatedPages/tf_idf_weigths</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I48" s="8"/>
+        <v>relatedPages/scoreLimit</v>
+      </c>
+      <c r="H48" s="8" t="str">
+        <f>H47</f>
+        <v>relatedPages</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="J48" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B49" s="7">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3490,83 +3505,80 @@
       </c>
       <c r="G49" s="8" t="str">
         <f t="shared" si="3"/>
+        <v>relatedPages/tf_idf_weigths</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>autoExcerpt/keywords
 minKeywordLength</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B50" s="7">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="8" t="s">
+    <row r="51" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="8" t="str">
-        <f>F49</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>pySimilarPagesByContent/enable</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50" s="8" t="str">
-        <f>J45</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B51" s="7">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f>F50</f>
+        <f t="shared" ref="F51:F91" si="5">F50</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="G51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pySimilarPagesByContent/similarity_threshold</v>
-      </c>
-      <c r="H51" s="8" t="str">
-        <f>H50</f>
-        <v>pySimilarPagesByContent</v>
+        <v>pySimilarPagesByContent/enable</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f>J46</f>
+        <v>true/false</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="51" x14ac:dyDescent="0.2">
@@ -3575,64 +3587,64 @@
         <v>50</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F52" s="8" t="str">
-        <f>F51</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pySimilarPagesByContent/model_url</v>
+        <v>pySimilarPagesByContent/similarity_threshold</v>
       </c>
       <c r="H52" s="8" t="str">
         <f>H51</f>
         <v>pySimilarPagesByContent</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pySimilarPagesByContent/model_url</v>
+      </c>
+      <c r="H53" s="8" t="str">
+        <f>H52</f>
+        <v>pySimilarPagesByContent</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J53" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B53" s="7">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" s="8" t="str">
-        <f>F52</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G53" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>pageKeywords/enable</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J53" s="8" t="str">
-        <f>J50</f>
-        <v>true/false</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -3641,761 +3653,760 @@
         <v>52</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F54" s="8" t="str">
-        <f>F53</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G54" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pageKeywords/model</v>
-      </c>
-      <c r="H54" s="8" t="str">
-        <f>H53</f>
-        <v>pageKeywords</v>
+        <v>pageKeywords/enable</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="J54" s="8" t="str">
-        <f>J52</f>
-        <v>url</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <f>J51</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="7">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f>F54</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G55" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>pageKeywords/minKeywords (maxKeywords)</v>
+        <v>pageKeywords/model</v>
       </c>
       <c r="H55" s="8" t="str">
         <f>H54</f>
         <v>pageKeywords</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f>J53</f>
+        <v>url</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>pageKeywords/minKeywords (maxKeywords)</v>
+      </c>
+      <c r="H56" s="8" t="str">
+        <f>H55</f>
+        <v>pageKeywords</v>
+      </c>
+      <c r="I56" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J55" s="8" t="str">
-        <f>J49</f>
+      <c r="J56" s="8" t="str">
+        <f>J50</f>
         <v>number
 number</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="7">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="8" t="s">
+    <row r="57" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" s="8" t="str">
-        <f>F55</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G56" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>github/enabled</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="8" t="str">
-        <f>J53</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B57" s="7">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F57" s="8" t="str">
-        <f>F56</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G57" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>github/user</v>
-      </c>
-      <c r="H57" s="8" t="str">
-        <f>H56</f>
-        <v>github</v>
+        <v>github/enabled</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f>J42</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="102" x14ac:dyDescent="0.2">
+        <f>J54</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="7">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F58" s="8" t="str">
-        <f>F57</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G58" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>github/repo</v>
+        <v>github/user</v>
       </c>
       <c r="H58" s="8" t="str">
         <f>H57</f>
         <v>github</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J58" s="8" t="str">
-        <f>J57</f>
+        <f>J43</f>
         <v>string</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B59" s="7">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" s="8" t="str">
-        <f>F58</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G59" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>github/discussionOrg</v>
+        <v>github/repo</v>
       </c>
       <c r="H59" s="8" t="str">
         <f>H58</f>
         <v>github</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J59" s="8" t="str">
         <f>J58</f>
         <v>string</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B60" s="7">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>github/discussionOrg</v>
+      </c>
+      <c r="H60" s="8" t="str">
+        <f>H59</f>
+        <v>github</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f>J59</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B61" s="7">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F60" s="8" t="str">
-        <f>F59</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G60" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>readingTime/enabled</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="8" t="str">
-        <f>J56</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B61" s="7">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>readingTime/enabled</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f>J57</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B62" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="8" t="str">
-        <f>F60</f>
+      <c r="F62" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G61" s="8" t="str">
+      <c r="G62" s="8" t="str">
         <f t="shared" si="3"/>
         <v>readingTime/average_adult (comprehension_study; skimming_study)</v>
       </c>
-      <c r="H61" s="8" t="str">
-        <f>H60</f>
+      <c r="H62" s="8" t="str">
+        <f>H61</f>
         <v>readingTime</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B62" s="7">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C62" s="8" t="s">
+    <row r="63" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F62" s="8" t="str">
-        <f>F61</f>
+      <c r="F63" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G62" s="8" t="str">
+      <c r="G63" s="8" t="str">
         <f t="shared" si="3"/>
         <v>algoliaSearch</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B63" s="7">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B64" s="7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F63" s="8" t="str">
-        <f>F62</f>
+      <c r="F64" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
-      <c r="G63" s="8" t="str">
+      <c r="G64" s="8" t="str">
         <f t="shared" si="3"/>
         <v>siteFooter/rows</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I64" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J64" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B64" s="7">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C64" s="8" t="s">
+    <row r="65" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B65" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="8" t="str">
-        <f>F63</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G64" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>googleAnalytics/enabled</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="8" t="str">
-        <f>J60</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="7">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F65" s="8" t="str">
-        <f>F64</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G65" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>googleAnalytics/ga</v>
-      </c>
-      <c r="H65" s="8" t="str">
-        <f>H64</f>
-        <v>googleAnalytics</v>
+        <v>googleAnalytics/enabled</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="J65" s="8" t="str">
-        <f>J59</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <f>J61</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F66" s="8" t="str">
-        <f>F65</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>googleTagManager/enabled</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I66" s="8" t="str">
-        <f>I64</f>
-        <v>enabled</v>
+        <v>googleAnalytics/ga</v>
+      </c>
+      <c r="H66" s="8" t="str">
+        <f>H65</f>
+        <v>googleAnalytics</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="J66" s="8" t="str">
-        <f>J64</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+        <f>J60</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B67" s="7">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F67" s="8" t="str">
-        <f>F66</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G67" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>googleTagManager/gtm</v>
-      </c>
-      <c r="H67" s="8" t="str">
-        <f>H66</f>
-        <v>googleTagManager</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>253</v>
+        <v>googleTagManager/enabled</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>I65</f>
+        <v>enabled</v>
       </c>
       <c r="J67" s="8" t="str">
         <f>J65</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>googleTagManager/gtm</v>
+      </c>
+      <c r="H68" s="8" t="str">
+        <f>H67</f>
+        <v>googleTagManager</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f>J66</f>
         <v>string</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B68" s="7">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F68" s="8" t="str">
-        <f>F67</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G68" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>breadcrumbs/depth</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J68" s="8" t="str">
-        <f>J46</f>
-        <v>number</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B69" s="7">
-        <f t="shared" ref="B69:B119" si="5">B68+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>breadcrumbs/depth</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f>J47</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B70" s="7">
+        <f t="shared" ref="B70:B120" si="6">B69+1</f>
+        <v>68</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="8" t="str">
-        <f>F68</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G69" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>hubspot/portalID</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J69" s="8" t="str">
-        <f>J67</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B70" s="7">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F70" s="8" t="str">
-        <f>F69</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G70" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>hubspot/region</v>
-      </c>
-      <c r="H70" s="8" t="str">
-        <f>H69</f>
-        <v>hubspot</v>
+        <v>hubspot/portalID</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J70" s="8" t="str">
-        <f>J69</f>
+        <f>J68</f>
         <v>string</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B71" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F71" s="8" t="str">
-        <f>F70</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>hubspot/feedbackFormID/ID</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>267</v>
+        <v>hubspot/region</v>
+      </c>
+      <c r="H71" s="8" t="str">
+        <f>H70</f>
+        <v>hubspot</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J71" s="8" t="str">
         <f>J70</f>
         <v>string</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B72" s="7">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="C72" s="8" t="s">
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>hubspot/feedbackFormID/ID</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f>J71</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" s="8" t="str">
-        <f>F71</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G72" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>faq/enabled</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J72" s="8" t="str">
-        <f>J66</f>
-        <v>true/false</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B73" s="7">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F73" s="8" t="str">
-        <f>F72</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G73" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>faq/pagination</v>
-      </c>
-      <c r="H73" s="8" t="str">
-        <f>H72</f>
-        <v>faq</v>
+        <v>faq/enabled</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="J73" s="8" t="str">
-        <f>J72</f>
+        <f>J67</f>
         <v>true/false</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B74" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F74" s="8" t="str">
-        <f>F73</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" ref="G74:G119" si="6">IF(H74="",I74,IF(I74&lt;&gt;"",_xlfn.CONCAT(H74,"/",I74),H74))</f>
-        <v>faq/displayedPagesDesktop</v>
+        <f t="shared" si="3"/>
+        <v>faq/pagination</v>
       </c>
       <c r="H74" s="8" t="str">
         <f>H73</f>
         <v>faq</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J74" s="8" t="str">
-        <f>J68</f>
-        <v>number</v>
+        <f>J73</f>
+        <v>true/false</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B75" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F75" s="8" t="str">
-        <f>F74</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>faq/displayedPagesMobile</v>
+        <f t="shared" ref="G75:G120" si="7">IF(H75="",I75,IF(I75&lt;&gt;"",_xlfn.CONCAT(H75,"/",I75),H75))</f>
+        <v>faq/displayedPagesDesktop</v>
       </c>
       <c r="H75" s="8" t="str">
         <f>H74</f>
         <v>faq</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J75" s="8" t="str">
-        <f>J74</f>
+        <f>J69</f>
         <v>number</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B76" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F76" s="8" t="str">
-        <f>F75</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>faq/perPage</v>
+        <f t="shared" si="7"/>
+        <v>faq/displayedPagesMobile</v>
       </c>
       <c r="H76" s="8" t="str">
         <f>H75</f>
         <v>faq</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J76" s="8" t="str">
         <f>J75</f>
@@ -4404,353 +4415,353 @@
     </row>
     <row r="77" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F77" s="8" t="str">
-        <f>F76</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>faq/faqToc</v>
+        <f t="shared" si="7"/>
+        <v>faq/perPage</v>
       </c>
       <c r="H77" s="8" t="str">
         <f>H76</f>
         <v>faq</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J77" s="8" t="str">
+        <f>J76</f>
+        <v>number</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G78" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>faq/faqToc</v>
+      </c>
+      <c r="H78" s="8" t="str">
+        <f>H77</f>
+        <v>faq</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="J77" s="8" t="str">
-        <f>J73</f>
+      <c r="J78" s="8" t="str">
+        <f>J74</f>
         <v>true/false</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="7">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78" s="8" t="str">
-        <f>F77</f>
-        <v>buildConfig.yml</v>
-      </c>
-      <c r="G78" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
     </row>
     <row r="79" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F79" s="8" t="str">
-        <f>F78</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/figma</v>
+        <f t="shared" si="7"/>
+        <v>elements</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F80" s="8" t="str">
-        <f>F79</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G80" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>elements/figma</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B81" s="7">
         <f t="shared" si="6"/>
-        <v>elements/figma/loadMessage</v>
-      </c>
-      <c r="H80" s="8" t="str">
-        <f>H79</f>
-        <v>elements/figma</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J80" s="8" t="str">
-        <f>J71</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="7">
-        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F81" s="8" t="str">
-        <f>F80</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/figma/embedSourceUrl</v>
+        <f t="shared" si="7"/>
+        <v>elements/figma/loadMessage</v>
       </c>
       <c r="H81" s="8" t="str">
         <f>H80</f>
         <v>elements/figma</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J81" s="8" t="str">
-        <f>J80</f>
+        <f>J72</f>
         <v>string</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F82" s="8" t="str">
-        <f>F81</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/figma/figmaBaseUrl</v>
+        <f t="shared" si="7"/>
+        <v>elements/figma/embedSourceUrl</v>
       </c>
       <c r="H82" s="8" t="str">
         <f>H81</f>
         <v>elements/figma</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J82" s="8" t="str">
         <f>J81</f>
         <v>string</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F83" s="8" t="str">
-        <f>F82</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/figma/allowedUrl</v>
+        <f t="shared" si="7"/>
+        <v>elements/figma/figmaBaseUrl</v>
       </c>
       <c r="H83" s="8" t="str">
         <f>H82</f>
         <v>elements/figma</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="J83" s="8" t="str">
+        <f>J82</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F84" s="8" t="str">
-        <f>F83</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/card</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+        <f t="shared" si="7"/>
+        <v>elements/figma/allowedUrl</v>
+      </c>
+      <c r="H84" s="8" t="str">
+        <f>H83</f>
+        <v>elements/figma</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="85" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F85" s="8" t="str">
-        <f>F84</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G85" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>elements/card</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B86" s="7">
         <f t="shared" si="6"/>
-        <v>elements/card/cardWidth</v>
-      </c>
-      <c r="H85" s="8" t="str">
-        <f>H84</f>
-        <v>elements/card</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="J85" s="8" t="str">
-        <f>J82</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B86" s="7">
-        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F86" s="8" t="str">
-        <f>F85</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/card/cardImgHeight</v>
+        <f t="shared" si="7"/>
+        <v>elements/card/cardWidth</v>
       </c>
       <c r="H86" s="8" t="str">
         <f>H85</f>
         <v>elements/card</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J86" s="8" t="str">
-        <f>J85</f>
+        <f>J83</f>
         <v>string</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F87" s="8" t="str">
-        <f>F86</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>elements/card/cardImgText</v>
+        <f t="shared" si="7"/>
+        <v>elements/card/cardImgHeight</v>
       </c>
       <c r="H87" s="8" t="str">
         <f>H86</f>
         <v>elements/card</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J87" s="8" t="str">
         <f>J86</f>
@@ -4759,1032 +4770,1066 @@
     </row>
     <row r="88" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F88" s="8" t="str">
-        <f>F87</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>extDocSummary</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+        <f t="shared" si="7"/>
+        <v>elements/card/cardImgText</v>
+      </c>
+      <c r="H88" s="8" t="str">
+        <f>H87</f>
+        <v>elements/card</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J88" s="8" t="str">
+        <f>J87</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="89" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F89" s="8" t="str">
-        <f>F88</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>extDocSummary/word_sum_model</v>
-      </c>
-      <c r="H89" s="8" t="str">
-        <f>H88</f>
+        <f t="shared" si="7"/>
         <v>extDocSummary</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J89" s="8" t="str">
-        <f>J87</f>
-        <v>string</v>
-      </c>
+      <c r="H89" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F90" s="8" t="str">
-        <f>F89</f>
+        <f t="shared" si="5"/>
         <v>buildConfig.yml</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>extDocSummary/pdf_sum_model</v>
+        <f t="shared" si="7"/>
+        <v>extDocSummary/word_sum_model</v>
       </c>
       <c r="H90" s="8" t="str">
         <f>H89</f>
         <v>extDocSummary</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J90" s="8" t="str">
-        <f>J89</f>
+        <f>J88</f>
         <v>string</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B91" s="7">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F91" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="C91" s="8" t="s">
+        <v>buildConfig.yml</v>
+      </c>
+      <c r="G91" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>extDocSummary/pdf_sum_model</v>
+      </c>
+      <c r="H91" s="8" t="str">
+        <f>H90</f>
+        <v>extDocSummary</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J91" s="8" t="str">
+        <f>J90</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B92" s="7">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="F91" s="8" t="str">
+      <c r="F92" s="8" t="str">
         <f>Tables!B7</f>
         <v>pageBuildConfig.yml</v>
       </c>
-      <c r="G91" s="8" t="str">
+      <c r="G92" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B93" s="7">
         <f t="shared" si="6"/>
-        <v>/</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B92" s="7">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="C92" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F92" s="8" t="str">
-        <f>F91</f>
-        <v>pageBuildConfig.yml</v>
-      </c>
-      <c r="G92" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>//startPermalink</v>
-      </c>
-      <c r="H92" s="8" t="str">
-        <f>H91</f>
-        <v>/</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J92" s="8" t="str">
-        <f>J90</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B93" s="7">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F93" s="8" t="str">
-        <f>F92</f>
+        <f t="shared" ref="F93:F117" si="8">F92</f>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+        <f t="shared" si="7"/>
+        <v>//startPermalink</v>
+      </c>
+      <c r="H93" s="8" t="str">
+        <f>H92</f>
+        <v>/</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" s="8" t="str">
+        <f>J91</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="94" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F94" s="8" t="str">
-        <f>F93</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/header_section</v>
+        <f t="shared" si="7"/>
+        <v>/sections</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F95" s="8" t="str">
-        <f>F94</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G95" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B96" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/header_section/title</v>
-      </c>
-      <c r="H95" s="8" t="str">
-        <f>H94</f>
-        <v>/sections/header_section</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="8" t="str">
-        <f>J92</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B96" s="7">
-        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F96" s="8" t="str">
-        <f>F95</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/header_section/text</v>
+        <f t="shared" si="7"/>
+        <v>/sections/header_section/title</v>
       </c>
       <c r="H96" s="8" t="str">
         <f>H95</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J96" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J96" s="8" t="str">
+        <f>J93</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F97" s="8" t="str">
-        <f>F96</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/header_section/startBtnText</v>
+        <f t="shared" si="7"/>
+        <v>/sections/header_section/text</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>H96</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="J97" s="8" t="str">
-        <f>J95</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F98" s="8" t="str">
-        <f>F97</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/header_section/featuredMedia</v>
+        <f t="shared" si="7"/>
+        <v>/sections/header_section/startBtnText</v>
       </c>
       <c r="H98" s="8" t="str">
         <f>H97</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="J98" s="8" t="str">
+        <f>J96</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F99" s="8" t="str">
-        <f>F98</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/collections_section</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+        <f t="shared" si="7"/>
+        <v>/sections/header_section/featuredMedia</v>
+      </c>
+      <c r="H99" s="8" t="str">
+        <f>H98</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="100" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F100" s="8" t="str">
-        <f>F99</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/collections_section/enabledInHome</v>
-      </c>
-      <c r="H100" s="8" t="str">
-        <f>H99</f>
+        <f t="shared" si="7"/>
         <v>/sections/collections_section</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="J100" s="8" t="str">
-        <f>J77</f>
-        <v>true/false</v>
-      </c>
+      <c r="H100" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
     </row>
     <row r="101" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B101" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F101" s="8" t="str">
-        <f>F100</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G101" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/enabledInHome</v>
+      </c>
+      <c r="H101" s="8" t="str">
+        <f t="shared" ref="H101:H106" si="9">H100</f>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J101" s="8" t="str">
+        <f>J78</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B102" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/collections_section/except</v>
-      </c>
-      <c r="H101" s="8" t="str">
-        <f>H100</f>
-        <v>/sections/collections_section</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B102" s="7">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F102" s="8" t="str">
-        <f>F101</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/collections_section/itemsToShow</v>
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/except</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f>H101</f>
+        <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B103" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F103" s="8" t="str">
-        <f>F102</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G103" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/itemsToShow</v>
+      </c>
+      <c r="H103" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B104" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/collections_section/collectionStartBtnText</v>
-      </c>
-      <c r="H103" s="8" t="str">
-        <f>H102</f>
-        <v>/sections/collections_section</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B104" s="7">
-        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F104" s="8" t="str">
-        <f>F103</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G104" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/collectionStartBtnText</v>
+      </c>
+      <c r="H104" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B105" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/collections_section/buttonsClass</v>
-      </c>
-      <c r="H104" s="8" t="str">
-        <f>H103</f>
-        <v>/sections/collections_section</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J104" s="8" t="str">
-        <f>J103</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="7">
-        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F105" s="8" t="str">
-        <f>F104</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/collections_section/buttonsTextClass</v>
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/buttonsClass</v>
       </c>
       <c r="H105" s="8" t="str">
-        <f>H104</f>
+        <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J105" s="8" t="str">
         <f>J104</f>
         <v>string</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B106" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F106" s="8" t="str">
-        <f>F105</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+        <f t="shared" si="7"/>
+        <v>/sections/collections_section/buttonsTextClass</v>
+      </c>
+      <c r="H106" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J106" s="8" t="str">
+        <f>J105</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="107" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B107" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F107" s="8" t="str">
-        <f>F106</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G107" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B108" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/recentFilesToShow</v>
-      </c>
-      <c r="H107" s="8" t="str">
-        <f>H106</f>
-        <v>/sections/mostRecentAndPopular_section</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B108" s="7">
-        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F108" s="8" t="str">
-        <f>F107</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G108" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/allDocsBtnText</v>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/recentFilesToShow</v>
       </c>
       <c r="H108" s="8" t="str">
-        <f>H107</f>
+        <f t="shared" ref="H108:H113" si="10">H107</f>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B109" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F109" s="8" t="str">
-        <f>F108</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G109" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/allCatsBtnText</v>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/allDocsBtnText</v>
       </c>
       <c r="H109" s="8" t="str">
-        <f>H108</f>
+        <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J109" s="8" t="str">
-        <f>J108</f>
-        <v>string</v>
+        <v>381</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B110" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F110" s="8" t="str">
-        <f>F109</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G110" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/allTagsBtnText</v>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/allCatsBtnText</v>
       </c>
       <c r="H110" s="8" t="str">
-        <f>H109</f>
+        <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J110" s="8" t="str">
         <f>J109</f>
         <v>string</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B111" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F111" s="8" t="str">
-        <f>F110</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G111" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/buttonsClass</v>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/allTagsBtnText</v>
       </c>
       <c r="H111" s="8" t="str">
-        <f>H110</f>
+        <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="J111" s="8" t="str">
         <f>J110</f>
         <v>string</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B112" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F112" s="8" t="str">
-        <f>F111</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/buttonsTextClass</v>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/buttonsClass</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f>H111</f>
+        <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J112" s="8" t="str">
         <f>J111</f>
         <v>string</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B113" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F113" s="8" t="str">
-        <f>F112</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/stats_section</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/buttonsTextClass</v>
+      </c>
+      <c r="H113" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J113" s="8" t="str">
+        <f>J112</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="114" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B114" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F114" s="8" t="str">
-        <f>F113</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G114" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B115" s="7">
         <f t="shared" si="6"/>
-        <v>/sections/stats_section/buttonsClass</v>
-      </c>
-      <c r="H114" s="8" t="str">
-        <f>H113</f>
-        <v>/sections/stats_section</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J114" s="8" t="str">
-        <f>J112</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B115" s="7">
-        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F115" s="8" t="str">
-        <f>F114</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G115" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/stats_section/buttonsTextClass</v>
+        <f t="shared" si="7"/>
+        <v>/sections/stats_section/buttonsClass</v>
       </c>
       <c r="H115" s="8" t="str">
         <f>H114</f>
         <v>/sections/stats_section</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J115" s="8" t="str">
-        <f>J114</f>
+        <f>J113</f>
         <v>string</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B116" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F116" s="8" t="str">
-        <f>F115</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G116" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/stats_section/buttonsIcon</v>
+        <f t="shared" si="7"/>
+        <v>/sections/stats_section/buttonsTextClass</v>
       </c>
       <c r="H116" s="8" t="str">
         <f>H115</f>
         <v>/sections/stats_section</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="J116" s="8" t="str">
         <f>J115</f>
         <v>string</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B117" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E117" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F117" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G117" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/stats_section/buttonsIcon</v>
+      </c>
+      <c r="H117" s="8" t="str">
+        <f>H116</f>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J117" s="8" t="str">
+        <f>J116</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B118" s="7">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F117" s="8" t="str">
+      <c r="F118" s="8" t="str">
         <f>Tables!B7</f>
         <v>pageBuildConfig.yml</v>
       </c>
-      <c r="G117" s="8" t="str">
-        <f t="shared" si="6"/>
+      <c r="G118" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B118" s="7">
-        <f t="shared" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F118" s="8" t="str">
-        <f>F117</f>
-        <v>pageBuildConfig.yml</v>
-      </c>
-      <c r="G118" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>/sections/mostRecentAndPopular_section/popularCatsToShow</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B119" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F119" s="8" t="str">
         <f>F118</f>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G119" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/popularCatsToShow</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B120" s="7">
         <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F120" s="8" t="str">
+        <f>F119</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G120" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>/sections/mostRecentAndPopular_section/popularTagsToShow</v>
       </c>
-      <c r="H119" s="8" t="str">
-        <f>H118</f>
+      <c r="H120" s="8" t="str">
+        <f>H119</f>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I120" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="J119" s="8" t="str">
-        <f>J118</f>
+      <c r="J120" s="8" t="str">
+        <f>J119</f>
         <v>number</v>
       </c>
     </row>
@@ -5798,19 +5843,19 @@
           <x14:formula1>
             <xm:f>configs!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D77</xm:sqref>
+          <xm:sqref>D4:D78</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{303AC917-8B49-D84F-A097-8C9DA4BBAA64}">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>D3 D78:D90</xm:sqref>
+          <xm:sqref>D3 D79:D91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7E0F850-1F52-2E4D-AEF4-4B26108DC5D3}">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D91:D119</xm:sqref>
+          <xm:sqref>D92:D120</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/doc-contents/site-config/config-files.xlsx
+++ b/doc-contents/site-config/config-files.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/site-config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950834B2-B070-9B42-9880-FAACAA6F491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E24235-12CD-D446-A40C-7A8C59CFDB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20320" activeTab="2" xr2:uid="{3C9CFA36-02E9-7B4C-BD5B-C827537C925E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Options" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Options!$B$2:$J$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="418">
   <si>
     <t>File</t>
   </si>
@@ -1301,6 +1301,15 @@
   </si>
   <si>
     <t>Site logo</t>
+  </si>
+  <si>
+    <t>Spell check</t>
+  </si>
+  <si>
+    <t>Enable/Disable spell checking at build time</t>
+  </si>
+  <si>
+    <t>spellCheck</t>
   </si>
 </sst>
 </file>
@@ -1917,11 +1926,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}">
-  <dimension ref="B2:J120"/>
+  <dimension ref="B2:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3563,7 +3572,7 @@
         <v>195</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" ref="F51:F91" si="5">F50</f>
+        <f t="shared" ref="F51:F92" si="5">F50</f>
         <v>buildConfig.yml</v>
       </c>
       <c r="G51" s="8" t="str">
@@ -4180,7 +4189,7 @@
     </row>
     <row r="70" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B70" s="7">
-        <f t="shared" ref="B70:B120" si="6">B69+1</f>
+        <f t="shared" ref="B70:B121" si="6">B69+1</f>
         <v>68</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -4364,7 +4373,7 @@
         <v>buildConfig.yml</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" ref="G75:G120" si="7">IF(H75="",I75,IF(I75&lt;&gt;"",_xlfn.CONCAT(H75,"/",I75),H75))</f>
+        <f t="shared" ref="G75:G121" si="7">IF(H75="",I75,IF(I75&lt;&gt;"",_xlfn.CONCAT(H75,"/",I75),H75))</f>
         <v>faq/displayedPagesDesktop</v>
       </c>
       <c r="H75" s="8" t="str">
@@ -4904,89 +4913,92 @@
         <v>90</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="F92" s="8" t="str">
-        <f>Tables!B7</f>
-        <v>pageBuildConfig.yml</v>
+        <f t="shared" si="5"/>
+        <v>buildConfig.yml</v>
       </c>
       <c r="G92" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/</v>
+        <v>spellCheck</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="J92" s="8" t="str">
+        <f>J78</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B93" s="7">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F93" s="8" t="str">
-        <f t="shared" ref="F93:F117" si="8">F92</f>
+        <f>Tables!B7</f>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G93" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>//startPermalink</v>
-      </c>
-      <c r="H93" s="8" t="str">
-        <f>H92</f>
         <v>/</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J93" s="8" t="str">
-        <f>J91</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="H93" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B94" s="7">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F94" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F94:F118" si="8">F93</f>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G94" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+        <v>//startPermalink</v>
+      </c>
+      <c r="H94" s="8" t="str">
+        <f>H93</f>
+        <v>/</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J94" s="8" t="str">
+        <f>J91</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="95" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B95" s="7">
@@ -4994,13 +5006,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F95" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5008,27 +5020,27 @@
       </c>
       <c r="G95" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/header_section</v>
+        <v>/sections</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B96" s="7">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F96" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5036,33 +5048,27 @@
       </c>
       <c r="G96" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/header_section/title</v>
-      </c>
-      <c r="H96" s="8" t="str">
-        <f>H95</f>
         <v>/sections/header_section</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J96" s="8" t="str">
-        <f>J93</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="H96" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B97" s="7">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F97" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5070,32 +5076,33 @@
       </c>
       <c r="G97" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/header_section/text</v>
+        <v>/sections/header_section/title</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>H96</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J97" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J97" s="8" t="str">
+        <f>J94</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B98" s="7">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F98" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5103,33 +5110,32 @@
       </c>
       <c r="G98" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/header_section/startBtnText</v>
+        <v>/sections/header_section/text</v>
       </c>
       <c r="H98" s="8" t="str">
         <f>H97</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="J98" s="8" t="str">
-        <f>J96</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B99" s="7">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F99" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5137,32 +5143,33 @@
       </c>
       <c r="G99" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/header_section/featuredMedia</v>
+        <v>/sections/header_section/startBtnText</v>
       </c>
       <c r="H99" s="8" t="str">
         <f>H98</f>
         <v>/sections/header_section</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="J99" s="8" t="str">
+        <f>J97</f>
+        <v>string</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B100" s="7">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F100" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5170,13 +5177,18 @@
       </c>
       <c r="G100" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+        <v>/sections/header_section/featuredMedia</v>
+      </c>
+      <c r="H100" s="8" t="str">
+        <f>H99</f>
+        <v>/sections/header_section</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="101" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B101" s="7">
@@ -5184,13 +5196,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F101" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5198,19 +5210,13 @@
       </c>
       <c r="G101" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/enabledInHome</v>
-      </c>
-      <c r="H101" s="8" t="str">
-        <f t="shared" ref="H101:H106" si="9">H100</f>
         <v>/sections/collections_section</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="J101" s="8" t="str">
-        <f>J78</f>
-        <v>true/false</v>
-      </c>
+      <c r="H101" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
     </row>
     <row r="102" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B102" s="7">
@@ -5218,13 +5224,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F102" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5232,32 +5238,33 @@
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/except</v>
+        <v>/sections/collections_section/enabledInHome</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H102:H107" si="9">H101</f>
         <v>/sections/collections_section</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="J102" s="8" t="str">
+        <f>J78</f>
+        <v>true/false</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B103" s="7">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F103" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5265,17 +5272,17 @@
       </c>
       <c r="G103" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/itemsToShow</v>
+        <v>/sections/collections_section/except</v>
       </c>
       <c r="H103" s="8" t="str">
         <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="68" x14ac:dyDescent="0.2">
@@ -5284,13 +5291,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F104" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5298,32 +5305,32 @@
       </c>
       <c r="G104" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/collectionStartBtnText</v>
+        <v>/sections/collections_section/itemsToShow</v>
       </c>
       <c r="H104" s="8" t="str">
         <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B105" s="7">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F105" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5331,33 +5338,32 @@
       </c>
       <c r="G105" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/buttonsClass</v>
+        <v>/sections/collections_section/collectionStartBtnText</v>
       </c>
       <c r="H105" s="8" t="str">
         <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J105" s="8" t="str">
-        <f>J104</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B106" s="7">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F106" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5365,33 +5371,33 @@
       </c>
       <c r="G106" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/collections_section/buttonsTextClass</v>
+        <v>/sections/collections_section/buttonsClass</v>
       </c>
       <c r="H106" s="8" t="str">
         <f t="shared" si="9"/>
         <v>/sections/collections_section</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J106" s="8" t="str">
         <f>J105</f>
         <v>string</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B107" s="7">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F107" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5399,13 +5405,19 @@
       </c>
       <c r="G107" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+        <v>/sections/collections_section/buttonsTextClass</v>
+      </c>
+      <c r="H107" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>/sections/collections_section</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J107" s="8" t="str">
+        <f>J106</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="108" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B108" s="7">
@@ -5413,13 +5425,13 @@
         <v>106</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F108" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5427,32 +5439,27 @@
       </c>
       <c r="G108" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/recentFilesToShow</v>
-      </c>
-      <c r="H108" s="8" t="str">
-        <f t="shared" ref="H108:H113" si="10">H107</f>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="H108" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B109" s="7">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F109" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5460,17 +5467,17 @@
       </c>
       <c r="G109" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/allDocsBtnText</v>
+        <v>/sections/mostRecentAndPopular_section/recentFilesToShow</v>
       </c>
       <c r="H109" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H109:H114" si="10">H108</f>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -5479,13 +5486,13 @@
         <v>108</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F110" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5493,18 +5500,17 @@
       </c>
       <c r="G110" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/allCatsBtnText</v>
+        <v>/sections/mostRecentAndPopular_section/allDocsBtnText</v>
       </c>
       <c r="H110" s="8" t="str">
         <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J110" s="8" t="str">
-        <f>J109</f>
-        <v>string</v>
+        <v>381</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -5513,13 +5519,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F111" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5527,33 +5533,33 @@
       </c>
       <c r="G111" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/allTagsBtnText</v>
+        <v>/sections/mostRecentAndPopular_section/allCatsBtnText</v>
       </c>
       <c r="H111" s="8" t="str">
         <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J111" s="8" t="str">
         <f>J110</f>
         <v>string</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B112" s="7">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F112" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5561,33 +5567,33 @@
       </c>
       <c r="G112" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/buttonsClass</v>
+        <v>/sections/mostRecentAndPopular_section/allTagsBtnText</v>
       </c>
       <c r="H112" s="8" t="str">
         <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="J112" s="8" t="str">
         <f>J111</f>
         <v>string</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B113" s="7">
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F113" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5595,33 +5601,33 @@
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/buttonsTextClass</v>
+        <v>/sections/mostRecentAndPopular_section/buttonsClass</v>
       </c>
       <c r="H113" s="8" t="str">
         <f t="shared" si="10"/>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J113" s="8" t="str">
         <f>J112</f>
         <v>string</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" ht="85" x14ac:dyDescent="0.2">
       <c r="B114" s="7">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F114" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5629,13 +5635,19 @@
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/stats_section</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+        <v>/sections/mostRecentAndPopular_section/buttonsTextClass</v>
+      </c>
+      <c r="H114" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>/sections/mostRecentAndPopular_section</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J114" s="8" t="str">
+        <f>J113</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="115" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B115" s="7">
@@ -5643,13 +5655,13 @@
         <v>113</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F115" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5657,33 +5669,27 @@
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/stats_section/buttonsClass</v>
-      </c>
-      <c r="H115" s="8" t="str">
-        <f>H114</f>
         <v>/sections/stats_section</v>
       </c>
-      <c r="I115" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="J115" s="8" t="str">
-        <f>J113</f>
-        <v>string</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="H115" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B116" s="7">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F116" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5691,17 +5697,17 @@
       </c>
       <c r="G116" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/stats_section/buttonsTextClass</v>
+        <v>/sections/stats_section/buttonsClass</v>
       </c>
       <c r="H116" s="8" t="str">
         <f>H115</f>
         <v>/sections/stats_section</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J116" s="8" t="str">
-        <f>J115</f>
+        <f>J114</f>
         <v>string</v>
       </c>
     </row>
@@ -5711,13 +5717,13 @@
         <v>115</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F117" s="8" t="str">
         <f t="shared" si="8"/>
@@ -5725,47 +5731,53 @@
       </c>
       <c r="G117" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/stats_section/buttonsIcon</v>
+        <v>/sections/stats_section/buttonsTextClass</v>
       </c>
       <c r="H117" s="8" t="str">
         <f>H116</f>
         <v>/sections/stats_section</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="J117" s="8" t="str">
         <f>J116</f>
         <v>string</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B118" s="7">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F118" s="8" t="str">
-        <f>Tables!B7</f>
+        <f t="shared" si="8"/>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G118" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+        <v>/sections/stats_section/buttonsIcon</v>
+      </c>
+      <c r="H118" s="8" t="str">
+        <f>H117</f>
+        <v>/sections/stats_section</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J118" s="8" t="str">
+        <f>J117</f>
+        <v>string</v>
+      </c>
     </row>
     <row r="119" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B119" s="7">
@@ -5773,31 +5785,27 @@
         <v>117</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F119" s="8" t="str">
-        <f>F118</f>
+        <f>Tables!B7</f>
         <v>pageBuildConfig.yml</v>
       </c>
       <c r="G119" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>/sections/mostRecentAndPopular_section/popularCatsToShow</v>
+        <v>/</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>87</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
     </row>
     <row r="120" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B120" s="7">
@@ -5805,13 +5813,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>328</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F120" s="8" t="str">
         <f>F119</f>
@@ -5819,22 +5827,54 @@
       </c>
       <c r="G120" s="8" t="str">
         <f t="shared" si="7"/>
+        <v>/sections/mostRecentAndPopular_section/popularCatsToShow</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B121" s="7">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F121" s="8" t="str">
+        <f>F120</f>
+        <v>pageBuildConfig.yml</v>
+      </c>
+      <c r="G121" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>/sections/mostRecentAndPopular_section/popularTagsToShow</v>
       </c>
-      <c r="H120" s="8" t="str">
-        <f>H119</f>
+      <c r="H121" s="8" t="str">
+        <f>H120</f>
         <v>/sections/mostRecentAndPopular_section</v>
       </c>
-      <c r="I120" s="8" t="s">
+      <c r="I121" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="J120" s="8" t="str">
-        <f>J119</f>
+      <c r="J121" s="8" t="str">
+        <f>J120</f>
         <v>number</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J2" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
+  <autoFilter ref="B2:J121" xr:uid="{01DA1035-E84F-D243-B150-8A903B2A3463}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5849,13 +5889,13 @@
           <x14:formula1>
             <xm:f>configs!$A$1:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>D3 D79:D91</xm:sqref>
+          <xm:sqref>D3 D79:D92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7E0F850-1F52-2E4D-AEF4-4B26108DC5D3}">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D92:D120</xm:sqref>
+          <xm:sqref>D93:D121</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
